--- a/data/fitness_development/fly_part2.xlsx
+++ b/data/fitness_development/fly_part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2ABA28A-36F2-8E4F-95FE-CDB74C5F03BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFC7D96-F01D-DA4A-B785-D050D82E65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB267A-8CE1-0F4E-97AE-D44F1974EE08}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="176" workbookViewId="0">
+      <selection activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2768,6 +2768,2318 @@
         <v>0</v>
       </c>
     </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>211</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>211</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>211</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>211</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>211</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>211</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>211</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>211</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>211</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>211</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>211</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>211</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>211</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>211</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>211</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153">
+        <v>211</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>211</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>211</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>211</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>211</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>211</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159">
+        <v>211</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>211</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>211</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>211</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>211</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>211</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>211</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>15</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>211</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>15</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>211</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>211</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>16</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169">
+        <v>211</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>17</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>211</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>17</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171">
+        <v>211</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>18</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>211</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>18</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>211</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>211</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>211</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176">
+        <v>211</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>211</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178">
+        <v>211</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>211</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>22</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180">
+        <v>211</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>22</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>211</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>211</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183">
+        <v>211</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>24</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>211</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>24</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>211</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>25</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>211</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187">
+        <v>211</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>26</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>211</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>211</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>27</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>211</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>27</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>211</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>211</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>211</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>29</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194">
+        <v>211</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>29</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195">
+        <v>211</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>30</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>211</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>30</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>211</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>31</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>211</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>31</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>211</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>32</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>211</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>32</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>211</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>33</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>211</v>
+      </c>
+      <c r="D202">
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>33</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203">
+        <v>211</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>34</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>211</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205">
+        <v>211</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>220</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>220</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>220</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>220</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210">
+        <v>220</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211">
+        <v>220</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212">
+        <v>220</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>220</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>220</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>220</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216">
+        <v>220</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <v>220</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218">
+        <v>220</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219">
+        <v>220</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220">
+        <v>220</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222">
+        <v>220</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <v>220</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224">
+        <v>220</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225">
+        <v>220</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226">
+        <v>220</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227">
+        <v>220</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228">
+        <v>220</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229">
+        <v>220</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>13</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230">
+        <v>220</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231">
+        <v>220</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>220</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>220</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>15</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234">
+        <v>220</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>15</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235">
+        <v>220</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>16</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236">
+        <v>220</v>
+      </c>
+      <c r="D236">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>16</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237">
+        <v>220</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>17</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238">
+        <v>220</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>17</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239">
+        <v>220</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>18</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240">
+        <v>220</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>18</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241">
+        <v>220</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>220</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>220</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <v>220</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>20</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245">
+        <v>220</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>220</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>21</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247">
+        <v>220</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>22</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248">
+        <v>220</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>22</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249">
+        <v>220</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>23</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <v>220</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>23</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251">
+        <v>220</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>24</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <v>220</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253">
+        <v>220</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>25</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <v>220</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>25</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255">
+        <v>220</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>26</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>220</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>26</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>220</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>27</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <v>220</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>27</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259">
+        <v>220</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>28</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260">
+        <v>220</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>28</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261">
+        <v>220</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>29</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>220</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>29</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263">
+        <v>220</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>30</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <v>220</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>30</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265">
+        <v>220</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>31</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <v>220</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>31</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267">
+        <v>220</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>32</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>220</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>32</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269">
+        <v>220</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>33</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270">
+        <v>220</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>33</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271">
+        <v>220</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>34</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272">
+        <v>220</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>34</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273">
+        <v>220</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/fly_part2.xlsx
+++ b/data/fitness_development/fly_part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDFC7D96-F01D-DA4A-B785-D050D82E65BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED272A5-4B2B-254D-B2EA-C81B42521305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB267A-8CE1-0F4E-97AE-D44F1974EE08}">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F270" sqref="F270"/>
+    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="163" workbookViewId="0">
+      <selection activeCell="E409" sqref="E409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5080,6 +5080,2318 @@
         <v>0</v>
       </c>
     </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>236</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275">
+        <v>236</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>2</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276">
+        <v>236</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277">
+        <v>236</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>236</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>3</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279">
+        <v>236</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>236</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>236</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282">
+        <v>236</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>236</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284">
+        <v>236</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>6</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285">
+        <v>236</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286">
+        <v>236</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>7</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
+      </c>
+      <c r="C287">
+        <v>236</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>8</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288">
+        <v>236</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>8</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289">
+        <v>236</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+      <c r="C290">
+        <v>236</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+      <c r="C291">
+        <v>236</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>5</v>
+      </c>
+      <c r="C292">
+        <v>236</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293">
+        <v>236</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>236</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>11</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>236</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>12</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296">
+        <v>236</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>12</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297">
+        <v>236</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>13</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>236</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>13</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
+      </c>
+      <c r="C299">
+        <v>236</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>5</v>
+      </c>
+      <c r="C300">
+        <v>236</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
+      </c>
+      <c r="C301">
+        <v>236</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>15</v>
+      </c>
+      <c r="B302" t="s">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>236</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>15</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303">
+        <v>236</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>16</v>
+      </c>
+      <c r="B304" t="s">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>236</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>16</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>236</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>17</v>
+      </c>
+      <c r="B306" t="s">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>236</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307">
+        <v>236</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>18</v>
+      </c>
+      <c r="B308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <v>236</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>18</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <v>236</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>19</v>
+      </c>
+      <c r="B310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C310">
+        <v>236</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>19</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311">
+        <v>236</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>20</v>
+      </c>
+      <c r="B312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C312">
+        <v>236</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+      <c r="E312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>20</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313">
+        <v>236</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>21</v>
+      </c>
+      <c r="B314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314">
+        <v>236</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>21</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315">
+        <v>236</v>
+      </c>
+      <c r="D315">
+        <v>6</v>
+      </c>
+      <c r="E315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>22</v>
+      </c>
+      <c r="B316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316">
+        <v>236</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>22</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317">
+        <v>236</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>23</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
+        <v>236</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>23</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+      <c r="C319">
+        <v>236</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>24</v>
+      </c>
+      <c r="B320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
+        <v>236</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>24</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321">
+        <v>236</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>25</v>
+      </c>
+      <c r="B322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322">
+        <v>236</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>25</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323">
+        <v>236</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>26</v>
+      </c>
+      <c r="B324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324">
+        <v>236</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>26</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325">
+        <v>236</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>27</v>
+      </c>
+      <c r="B326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C326">
+        <v>236</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>27</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327">
+        <v>236</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>28</v>
+      </c>
+      <c r="B328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>236</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>28</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>236</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>29</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C330">
+        <v>236</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>29</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331">
+        <v>236</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>30</v>
+      </c>
+      <c r="B332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C332">
+        <v>236</v>
+      </c>
+      <c r="D332">
+        <v>4</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>30</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333">
+        <v>236</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>31</v>
+      </c>
+      <c r="B334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C334">
+        <v>236</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>31</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
+        <v>236</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>32</v>
+      </c>
+      <c r="B336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336">
+        <v>236</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>32</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337">
+        <v>236</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>33</v>
+      </c>
+      <c r="B338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C338">
+        <v>236</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>33</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339">
+        <v>236</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>34</v>
+      </c>
+      <c r="B340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C340">
+        <v>236</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>34</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>236</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C342">
+        <v>244</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343">
+        <v>244</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344">
+        <v>244</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345">
+        <v>244</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>3</v>
+      </c>
+      <c r="B346" t="s">
+        <v>5</v>
+      </c>
+      <c r="C346">
+        <v>244</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>3</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347">
+        <v>244</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348">
+        <v>244</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349">
+        <v>244</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350">
+        <v>244</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351">
+        <v>244</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>6</v>
+      </c>
+      <c r="B352" t="s">
+        <v>5</v>
+      </c>
+      <c r="C352">
+        <v>244</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>6</v>
+      </c>
+      <c r="B353" t="s">
+        <v>6</v>
+      </c>
+      <c r="C353">
+        <v>244</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>7</v>
+      </c>
+      <c r="B354" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354">
+        <v>244</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>6</v>
+      </c>
+      <c r="C355">
+        <v>244</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>8</v>
+      </c>
+      <c r="B356" t="s">
+        <v>5</v>
+      </c>
+      <c r="C356">
+        <v>244</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>8</v>
+      </c>
+      <c r="B357" t="s">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>244</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>5</v>
+      </c>
+      <c r="C358">
+        <v>244</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>6</v>
+      </c>
+      <c r="C359">
+        <v>244</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>10</v>
+      </c>
+      <c r="B360" t="s">
+        <v>5</v>
+      </c>
+      <c r="C360">
+        <v>244</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>10</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+      <c r="C361">
+        <v>244</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>11</v>
+      </c>
+      <c r="B362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C362">
+        <v>244</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>11</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363">
+        <v>244</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>12</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364">
+        <v>244</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>12</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365">
+        <v>244</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>13</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+      <c r="C366">
+        <v>244</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>13</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367">
+        <v>244</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>14</v>
+      </c>
+      <c r="B368" t="s">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>244</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>14</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369">
+        <v>244</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>15</v>
+      </c>
+      <c r="B370" t="s">
+        <v>5</v>
+      </c>
+      <c r="C370">
+        <v>244</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>15</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371">
+        <v>244</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>16</v>
+      </c>
+      <c r="B372" t="s">
+        <v>5</v>
+      </c>
+      <c r="C372">
+        <v>244</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>16</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373">
+        <v>244</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>17</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+      <c r="C374">
+        <v>244</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>17</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375">
+        <v>244</v>
+      </c>
+      <c r="D375">
+        <v>3</v>
+      </c>
+      <c r="E375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>18</v>
+      </c>
+      <c r="B376" t="s">
+        <v>5</v>
+      </c>
+      <c r="C376">
+        <v>244</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>18</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377">
+        <v>244</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>19</v>
+      </c>
+      <c r="B378" t="s">
+        <v>5</v>
+      </c>
+      <c r="C378">
+        <v>244</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s">
+        <v>6</v>
+      </c>
+      <c r="C379">
+        <v>244</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>20</v>
+      </c>
+      <c r="B380" t="s">
+        <v>5</v>
+      </c>
+      <c r="C380">
+        <v>244</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>20</v>
+      </c>
+      <c r="B381" t="s">
+        <v>6</v>
+      </c>
+      <c r="C381">
+        <v>244</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>21</v>
+      </c>
+      <c r="B382" t="s">
+        <v>5</v>
+      </c>
+      <c r="C382">
+        <v>244</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>21</v>
+      </c>
+      <c r="B383" t="s">
+        <v>6</v>
+      </c>
+      <c r="C383">
+        <v>244</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>22</v>
+      </c>
+      <c r="B384" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384">
+        <v>244</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>22</v>
+      </c>
+      <c r="B385" t="s">
+        <v>6</v>
+      </c>
+      <c r="C385">
+        <v>244</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>23</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386">
+        <v>244</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>23</v>
+      </c>
+      <c r="B387" t="s">
+        <v>6</v>
+      </c>
+      <c r="C387">
+        <v>244</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>24</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388">
+        <v>244</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>24</v>
+      </c>
+      <c r="B389" t="s">
+        <v>6</v>
+      </c>
+      <c r="C389">
+        <v>244</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>25</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>244</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>25</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>244</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>26</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>244</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>26</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393">
+        <v>244</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>27</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394">
+        <v>244</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>27</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395">
+        <v>244</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>28</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396">
+        <v>244</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>28</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397">
+        <v>244</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>29</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398">
+        <v>244</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>29</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399">
+        <v>244</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>30</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400">
+        <v>244</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>30</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401">
+        <v>244</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>31</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402">
+        <v>244</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>31</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403">
+        <v>244</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>32</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404">
+        <v>244</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>32</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405">
+        <v>244</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>33</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406">
+        <v>244</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>33</v>
+      </c>
+      <c r="B407" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407">
+        <v>244</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>34</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408">
+        <v>244</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>34</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409">
+        <v>244</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/fly_part2.xlsx
+++ b/data/fitness_development/fly_part2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_13/data/fitness_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_14/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED272A5-4B2B-254D-B2EA-C81B42521305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFD7433-D11C-B24E-A6FD-F115AB11E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB267A-8CE1-0F4E-97AE-D44F1974EE08}">
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:E613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" zoomScale="163" workbookViewId="0">
-      <selection activeCell="E409" sqref="E409"/>
+    <sheetView tabSelected="1" topLeftCell="A605" zoomScale="305" workbookViewId="0">
+      <selection activeCell="D614" sqref="D614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7392,6 +7392,3474 @@
         <v>0</v>
       </c>
     </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410">
+        <v>260</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411">
+        <v>260</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>2</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412">
+        <v>260</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>2</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413">
+        <v>260</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>3</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414">
+        <v>260</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>3</v>
+      </c>
+      <c r="B415" t="s">
+        <v>6</v>
+      </c>
+      <c r="C415">
+        <v>260</v>
+      </c>
+      <c r="D415">
+        <v>5</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416">
+        <v>260</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>6</v>
+      </c>
+      <c r="C417">
+        <v>260</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418">
+        <v>260</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>6</v>
+      </c>
+      <c r="C419">
+        <v>260</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>6</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420">
+        <v>260</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>6</v>
+      </c>
+      <c r="B421" t="s">
+        <v>6</v>
+      </c>
+      <c r="C421">
+        <v>260</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>7</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422">
+        <v>260</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>7</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423">
+        <v>260</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>8</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424">
+        <v>260</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>8</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425">
+        <v>260</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>9</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426">
+        <v>260</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>9</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427">
+        <v>260</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>10</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428">
+        <v>260</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429">
+        <v>260</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>11</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430">
+        <v>260</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>11</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431">
+        <v>260</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>12</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432">
+        <v>260</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>12</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433">
+        <v>260</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>13</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434">
+        <v>260</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>13</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435">
+        <v>260</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+      <c r="E435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>14</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436">
+        <v>260</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>14</v>
+      </c>
+      <c r="B437" t="s">
+        <v>6</v>
+      </c>
+      <c r="C437">
+        <v>260</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>15</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>260</v>
+      </c>
+      <c r="D438">
+        <v>4</v>
+      </c>
+      <c r="E438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>15</v>
+      </c>
+      <c r="B439" t="s">
+        <v>6</v>
+      </c>
+      <c r="C439">
+        <v>260</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>16</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440">
+        <v>260</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>16</v>
+      </c>
+      <c r="B441" t="s">
+        <v>6</v>
+      </c>
+      <c r="C441">
+        <v>260</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>17</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442">
+        <v>260</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>17</v>
+      </c>
+      <c r="B443" t="s">
+        <v>6</v>
+      </c>
+      <c r="C443">
+        <v>260</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>18</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444">
+        <v>260</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>18</v>
+      </c>
+      <c r="B445" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445">
+        <v>260</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>19</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446">
+        <v>260</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>19</v>
+      </c>
+      <c r="B447" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447">
+        <v>260</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>20</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448">
+        <v>260</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>20</v>
+      </c>
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449">
+        <v>260</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>21</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450">
+        <v>260</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>21</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451">
+        <v>260</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>22</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452">
+        <v>260</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>22</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453">
+        <v>260</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>23</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454">
+        <v>260</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>23</v>
+      </c>
+      <c r="B455" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455">
+        <v>260</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>24</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456">
+        <v>260</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>24</v>
+      </c>
+      <c r="B457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457">
+        <v>260</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>25</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458">
+        <v>260</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>25</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459">
+        <v>260</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>26</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460">
+        <v>260</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>26</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461">
+        <v>260</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>27</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462">
+        <v>260</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>27</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463">
+        <v>260</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>28</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464">
+        <v>260</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>28</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465">
+        <v>260</v>
+      </c>
+      <c r="D465">
+        <v>3</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>29</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466">
+        <v>260</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>29</v>
+      </c>
+      <c r="B467" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467">
+        <v>260</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>30</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468">
+        <v>260</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>30</v>
+      </c>
+      <c r="B469" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469">
+        <v>260</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>31</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470">
+        <v>260</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+      <c r="E470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>31</v>
+      </c>
+      <c r="B471" t="s">
+        <v>6</v>
+      </c>
+      <c r="C471">
+        <v>260</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>32</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472">
+        <v>260</v>
+      </c>
+      <c r="D472">
+        <v>3</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>32</v>
+      </c>
+      <c r="B473" t="s">
+        <v>6</v>
+      </c>
+      <c r="C473">
+        <v>260</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>33</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474">
+        <v>260</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>33</v>
+      </c>
+      <c r="B475" t="s">
+        <v>6</v>
+      </c>
+      <c r="C475">
+        <v>260</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>34</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476">
+        <v>260</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>34</v>
+      </c>
+      <c r="B477" t="s">
+        <v>6</v>
+      </c>
+      <c r="C477">
+        <v>260</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>1</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478">
+        <v>269</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>1</v>
+      </c>
+      <c r="B479" t="s">
+        <v>6</v>
+      </c>
+      <c r="C479">
+        <v>269</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>2</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480">
+        <v>269</v>
+      </c>
+      <c r="D480">
+        <v>1</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>2</v>
+      </c>
+      <c r="B481" t="s">
+        <v>6</v>
+      </c>
+      <c r="C481">
+        <v>269</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+      <c r="E481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>3</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482">
+        <v>269</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>3</v>
+      </c>
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483">
+        <v>269</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484">
+        <v>269</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>6</v>
+      </c>
+      <c r="C485">
+        <v>269</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>5</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486">
+        <v>269</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>5</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487">
+        <v>269</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>6</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C488">
+        <v>269</v>
+      </c>
+      <c r="D488">
+        <v>2</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>6</v>
+      </c>
+      <c r="B489" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489">
+        <v>269</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>7</v>
+      </c>
+      <c r="B490" t="s">
+        <v>5</v>
+      </c>
+      <c r="C490">
+        <v>269</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>7</v>
+      </c>
+      <c r="B491" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491">
+        <v>269</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>8</v>
+      </c>
+      <c r="B492" t="s">
+        <v>5</v>
+      </c>
+      <c r="C492">
+        <v>269</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>8</v>
+      </c>
+      <c r="B493" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493">
+        <v>269</v>
+      </c>
+      <c r="D493">
+        <v>5</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>9</v>
+      </c>
+      <c r="B494" t="s">
+        <v>5</v>
+      </c>
+      <c r="C494">
+        <v>269</v>
+      </c>
+      <c r="D494">
+        <v>2</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>9</v>
+      </c>
+      <c r="B495" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495">
+        <v>269</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>10</v>
+      </c>
+      <c r="B496" t="s">
+        <v>5</v>
+      </c>
+      <c r="C496">
+        <v>269</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>10</v>
+      </c>
+      <c r="B497" t="s">
+        <v>6</v>
+      </c>
+      <c r="C497">
+        <v>269</v>
+      </c>
+      <c r="D497">
+        <v>5</v>
+      </c>
+      <c r="E497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>11</v>
+      </c>
+      <c r="B498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C498">
+        <v>269</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>11</v>
+      </c>
+      <c r="B499" t="s">
+        <v>6</v>
+      </c>
+      <c r="C499">
+        <v>269</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>12</v>
+      </c>
+      <c r="B500" t="s">
+        <v>5</v>
+      </c>
+      <c r="C500">
+        <v>269</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>12</v>
+      </c>
+      <c r="B501" t="s">
+        <v>6</v>
+      </c>
+      <c r="C501">
+        <v>269</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>13</v>
+      </c>
+      <c r="B502" t="s">
+        <v>5</v>
+      </c>
+      <c r="C502">
+        <v>269</v>
+      </c>
+      <c r="D502">
+        <v>3</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>13</v>
+      </c>
+      <c r="B503" t="s">
+        <v>6</v>
+      </c>
+      <c r="C503">
+        <v>269</v>
+      </c>
+      <c r="D503">
+        <v>3</v>
+      </c>
+      <c r="E503">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>14</v>
+      </c>
+      <c r="B504" t="s">
+        <v>5</v>
+      </c>
+      <c r="C504">
+        <v>269</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+      <c r="E504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>14</v>
+      </c>
+      <c r="B505" t="s">
+        <v>6</v>
+      </c>
+      <c r="C505">
+        <v>269</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>15</v>
+      </c>
+      <c r="B506" t="s">
+        <v>5</v>
+      </c>
+      <c r="C506">
+        <v>269</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>15</v>
+      </c>
+      <c r="B507" t="s">
+        <v>6</v>
+      </c>
+      <c r="C507">
+        <v>269</v>
+      </c>
+      <c r="D507">
+        <v>0</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>16</v>
+      </c>
+      <c r="B508" t="s">
+        <v>5</v>
+      </c>
+      <c r="C508">
+        <v>269</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>16</v>
+      </c>
+      <c r="B509" t="s">
+        <v>6</v>
+      </c>
+      <c r="C509">
+        <v>269</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>17</v>
+      </c>
+      <c r="B510" t="s">
+        <v>5</v>
+      </c>
+      <c r="C510">
+        <v>269</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>17</v>
+      </c>
+      <c r="B511" t="s">
+        <v>6</v>
+      </c>
+      <c r="C511">
+        <v>269</v>
+      </c>
+      <c r="D511">
+        <v>0</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>18</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512">
+        <v>269</v>
+      </c>
+      <c r="D512">
+        <v>0</v>
+      </c>
+      <c r="E512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>18</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513">
+        <v>269</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>19</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514">
+        <v>269</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>19</v>
+      </c>
+      <c r="B515" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515">
+        <v>269</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+      <c r="E515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>20</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516">
+        <v>269</v>
+      </c>
+      <c r="D516">
+        <v>4</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>20</v>
+      </c>
+      <c r="B517" t="s">
+        <v>6</v>
+      </c>
+      <c r="C517">
+        <v>269</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>21</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518">
+        <v>269</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>21</v>
+      </c>
+      <c r="B519" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519">
+        <v>269</v>
+      </c>
+      <c r="D519">
+        <v>0</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>22</v>
+      </c>
+      <c r="B520" t="s">
+        <v>5</v>
+      </c>
+      <c r="C520">
+        <v>269</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>22</v>
+      </c>
+      <c r="B521" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521">
+        <v>269</v>
+      </c>
+      <c r="D521">
+        <v>0</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>23</v>
+      </c>
+      <c r="B522" t="s">
+        <v>5</v>
+      </c>
+      <c r="C522">
+        <v>269</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>23</v>
+      </c>
+      <c r="B523" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523">
+        <v>269</v>
+      </c>
+      <c r="D523">
+        <v>0</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>24</v>
+      </c>
+      <c r="B524" t="s">
+        <v>5</v>
+      </c>
+      <c r="C524">
+        <v>269</v>
+      </c>
+      <c r="D524">
+        <v>0</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>24</v>
+      </c>
+      <c r="B525" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525">
+        <v>269</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>25</v>
+      </c>
+      <c r="B526" t="s">
+        <v>5</v>
+      </c>
+      <c r="C526">
+        <v>269</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>25</v>
+      </c>
+      <c r="B527" t="s">
+        <v>6</v>
+      </c>
+      <c r="C527">
+        <v>269</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>26</v>
+      </c>
+      <c r="B528" t="s">
+        <v>5</v>
+      </c>
+      <c r="C528">
+        <v>269</v>
+      </c>
+      <c r="D528">
+        <v>5</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>26</v>
+      </c>
+      <c r="B529" t="s">
+        <v>6</v>
+      </c>
+      <c r="C529">
+        <v>269</v>
+      </c>
+      <c r="D529">
+        <v>0</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>27</v>
+      </c>
+      <c r="B530" t="s">
+        <v>5</v>
+      </c>
+      <c r="C530">
+        <v>269</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>27</v>
+      </c>
+      <c r="B531" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>269</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>28</v>
+      </c>
+      <c r="B532" t="s">
+        <v>5</v>
+      </c>
+      <c r="C532">
+        <v>269</v>
+      </c>
+      <c r="D532">
+        <v>0</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>28</v>
+      </c>
+      <c r="B533" t="s">
+        <v>6</v>
+      </c>
+      <c r="C533">
+        <v>269</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>29</v>
+      </c>
+      <c r="B534" t="s">
+        <v>5</v>
+      </c>
+      <c r="C534">
+        <v>269</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>29</v>
+      </c>
+      <c r="B535" t="s">
+        <v>6</v>
+      </c>
+      <c r="C535">
+        <v>269</v>
+      </c>
+      <c r="D535">
+        <v>0</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>30</v>
+      </c>
+      <c r="B536" t="s">
+        <v>5</v>
+      </c>
+      <c r="C536">
+        <v>269</v>
+      </c>
+      <c r="D536">
+        <v>1</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>30</v>
+      </c>
+      <c r="B537" t="s">
+        <v>6</v>
+      </c>
+      <c r="C537">
+        <v>269</v>
+      </c>
+      <c r="D537">
+        <v>2</v>
+      </c>
+      <c r="E537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>31</v>
+      </c>
+      <c r="B538" t="s">
+        <v>5</v>
+      </c>
+      <c r="C538">
+        <v>269</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>31</v>
+      </c>
+      <c r="B539" t="s">
+        <v>6</v>
+      </c>
+      <c r="C539">
+        <v>269</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>32</v>
+      </c>
+      <c r="B540" t="s">
+        <v>5</v>
+      </c>
+      <c r="C540">
+        <v>269</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>32</v>
+      </c>
+      <c r="B541" t="s">
+        <v>6</v>
+      </c>
+      <c r="C541">
+        <v>269</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>33</v>
+      </c>
+      <c r="B542" t="s">
+        <v>5</v>
+      </c>
+      <c r="C542">
+        <v>269</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>33</v>
+      </c>
+      <c r="B543" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543">
+        <v>269</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>34</v>
+      </c>
+      <c r="B544" t="s">
+        <v>5</v>
+      </c>
+      <c r="C544">
+        <v>269</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>34</v>
+      </c>
+      <c r="B545" t="s">
+        <v>6</v>
+      </c>
+      <c r="C545">
+        <v>269</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>1</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="C546">
+        <v>282</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="E546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>1</v>
+      </c>
+      <c r="B547" t="s">
+        <v>6</v>
+      </c>
+      <c r="C547">
+        <v>282</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>2</v>
+      </c>
+      <c r="B548" t="s">
+        <v>5</v>
+      </c>
+      <c r="C548">
+        <v>282</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>2</v>
+      </c>
+      <c r="B549" t="s">
+        <v>6</v>
+      </c>
+      <c r="C549">
+        <v>282</v>
+      </c>
+      <c r="D549">
+        <v>0</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>3</v>
+      </c>
+      <c r="B550" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550">
+        <v>282</v>
+      </c>
+      <c r="D550">
+        <v>2</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>3</v>
+      </c>
+      <c r="B551" t="s">
+        <v>6</v>
+      </c>
+      <c r="C551">
+        <v>282</v>
+      </c>
+      <c r="D551">
+        <v>0</v>
+      </c>
+      <c r="E551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>4</v>
+      </c>
+      <c r="B552" t="s">
+        <v>5</v>
+      </c>
+      <c r="C552">
+        <v>282</v>
+      </c>
+      <c r="D552">
+        <v>0</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>4</v>
+      </c>
+      <c r="B553" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553">
+        <v>282</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>5</v>
+      </c>
+      <c r="B554" t="s">
+        <v>5</v>
+      </c>
+      <c r="C554">
+        <v>282</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>5</v>
+      </c>
+      <c r="B555" t="s">
+        <v>6</v>
+      </c>
+      <c r="C555">
+        <v>282</v>
+      </c>
+      <c r="D555">
+        <v>0</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>6</v>
+      </c>
+      <c r="B556" t="s">
+        <v>5</v>
+      </c>
+      <c r="C556">
+        <v>282</v>
+      </c>
+      <c r="D556">
+        <v>0</v>
+      </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>6</v>
+      </c>
+      <c r="B557" t="s">
+        <v>6</v>
+      </c>
+      <c r="C557">
+        <v>282</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>7</v>
+      </c>
+      <c r="B558" t="s">
+        <v>5</v>
+      </c>
+      <c r="C558">
+        <v>282</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>7</v>
+      </c>
+      <c r="B559" t="s">
+        <v>6</v>
+      </c>
+      <c r="C559">
+        <v>282</v>
+      </c>
+      <c r="D559">
+        <v>0</v>
+      </c>
+      <c r="E559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>8</v>
+      </c>
+      <c r="B560" t="s">
+        <v>5</v>
+      </c>
+      <c r="C560">
+        <v>282</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>8</v>
+      </c>
+      <c r="B561" t="s">
+        <v>6</v>
+      </c>
+      <c r="C561">
+        <v>282</v>
+      </c>
+      <c r="D561">
+        <v>3</v>
+      </c>
+      <c r="E561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>9</v>
+      </c>
+      <c r="B562" t="s">
+        <v>5</v>
+      </c>
+      <c r="C562">
+        <v>282</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>9</v>
+      </c>
+      <c r="B563" t="s">
+        <v>6</v>
+      </c>
+      <c r="C563">
+        <v>282</v>
+      </c>
+      <c r="D563">
+        <v>3</v>
+      </c>
+      <c r="E563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>10</v>
+      </c>
+      <c r="B564" t="s">
+        <v>5</v>
+      </c>
+      <c r="C564">
+        <v>282</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>10</v>
+      </c>
+      <c r="B565" t="s">
+        <v>6</v>
+      </c>
+      <c r="C565">
+        <v>282</v>
+      </c>
+      <c r="D565">
+        <v>0</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>11</v>
+      </c>
+      <c r="B566" t="s">
+        <v>5</v>
+      </c>
+      <c r="C566">
+        <v>282</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>11</v>
+      </c>
+      <c r="B567" t="s">
+        <v>6</v>
+      </c>
+      <c r="C567">
+        <v>282</v>
+      </c>
+      <c r="D567">
+        <v>0</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>12</v>
+      </c>
+      <c r="B568" t="s">
+        <v>5</v>
+      </c>
+      <c r="C568">
+        <v>282</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>12</v>
+      </c>
+      <c r="B569" t="s">
+        <v>6</v>
+      </c>
+      <c r="C569">
+        <v>282</v>
+      </c>
+      <c r="D569">
+        <v>0</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>13</v>
+      </c>
+      <c r="B570" t="s">
+        <v>5</v>
+      </c>
+      <c r="C570">
+        <v>282</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>13</v>
+      </c>
+      <c r="B571" t="s">
+        <v>6</v>
+      </c>
+      <c r="C571">
+        <v>282</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>14</v>
+      </c>
+      <c r="B572" t="s">
+        <v>5</v>
+      </c>
+      <c r="C572">
+        <v>282</v>
+      </c>
+      <c r="D572">
+        <v>0</v>
+      </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>14</v>
+      </c>
+      <c r="B573" t="s">
+        <v>6</v>
+      </c>
+      <c r="C573">
+        <v>282</v>
+      </c>
+      <c r="D573">
+        <v>0</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>15</v>
+      </c>
+      <c r="B574" t="s">
+        <v>5</v>
+      </c>
+      <c r="C574">
+        <v>282</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>15</v>
+      </c>
+      <c r="B575" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575">
+        <v>282</v>
+      </c>
+      <c r="D575">
+        <v>0</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>16</v>
+      </c>
+      <c r="B576" t="s">
+        <v>5</v>
+      </c>
+      <c r="C576">
+        <v>282</v>
+      </c>
+      <c r="D576">
+        <v>1</v>
+      </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>16</v>
+      </c>
+      <c r="B577" t="s">
+        <v>6</v>
+      </c>
+      <c r="C577">
+        <v>282</v>
+      </c>
+      <c r="D577">
+        <v>2</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>17</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578">
+        <v>282</v>
+      </c>
+      <c r="D578">
+        <v>0</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>17</v>
+      </c>
+      <c r="B579" t="s">
+        <v>6</v>
+      </c>
+      <c r="C579">
+        <v>282</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>18</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580">
+        <v>282</v>
+      </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>18</v>
+      </c>
+      <c r="B581" t="s">
+        <v>6</v>
+      </c>
+      <c r="C581">
+        <v>282</v>
+      </c>
+      <c r="D581">
+        <v>0</v>
+      </c>
+      <c r="E581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>19</v>
+      </c>
+      <c r="B582" t="s">
+        <v>5</v>
+      </c>
+      <c r="C582">
+        <v>282</v>
+      </c>
+      <c r="D582">
+        <v>0</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>19</v>
+      </c>
+      <c r="B583" t="s">
+        <v>6</v>
+      </c>
+      <c r="C583">
+        <v>282</v>
+      </c>
+      <c r="D583">
+        <v>3</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>20</v>
+      </c>
+      <c r="B584" t="s">
+        <v>5</v>
+      </c>
+      <c r="C584">
+        <v>282</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>20</v>
+      </c>
+      <c r="B585" t="s">
+        <v>6</v>
+      </c>
+      <c r="C585">
+        <v>282</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>21</v>
+      </c>
+      <c r="B586" t="s">
+        <v>5</v>
+      </c>
+      <c r="C586">
+        <v>282</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>21</v>
+      </c>
+      <c r="B587" t="s">
+        <v>6</v>
+      </c>
+      <c r="C587">
+        <v>282</v>
+      </c>
+      <c r="D587">
+        <v>2</v>
+      </c>
+      <c r="E587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>22</v>
+      </c>
+      <c r="B588" t="s">
+        <v>5</v>
+      </c>
+      <c r="C588">
+        <v>282</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>22</v>
+      </c>
+      <c r="B589" t="s">
+        <v>6</v>
+      </c>
+      <c r="C589">
+        <v>282</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>23</v>
+      </c>
+      <c r="B590" t="s">
+        <v>5</v>
+      </c>
+      <c r="C590">
+        <v>282</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>23</v>
+      </c>
+      <c r="B591" t="s">
+        <v>6</v>
+      </c>
+      <c r="C591">
+        <v>282</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>24</v>
+      </c>
+      <c r="B592" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592">
+        <v>282</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>24</v>
+      </c>
+      <c r="B593" t="s">
+        <v>6</v>
+      </c>
+      <c r="C593">
+        <v>282</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>25</v>
+      </c>
+      <c r="B594" t="s">
+        <v>5</v>
+      </c>
+      <c r="C594">
+        <v>282</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>25</v>
+      </c>
+      <c r="B595" t="s">
+        <v>6</v>
+      </c>
+      <c r="C595">
+        <v>282</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>26</v>
+      </c>
+      <c r="B596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C596">
+        <v>282</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>26</v>
+      </c>
+      <c r="B597" t="s">
+        <v>6</v>
+      </c>
+      <c r="C597">
+        <v>282</v>
+      </c>
+      <c r="D597">
+        <v>0</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>27</v>
+      </c>
+      <c r="B598" t="s">
+        <v>5</v>
+      </c>
+      <c r="C598">
+        <v>282</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>27</v>
+      </c>
+      <c r="B599" t="s">
+        <v>6</v>
+      </c>
+      <c r="C599">
+        <v>282</v>
+      </c>
+      <c r="D599">
+        <v>0</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>28</v>
+      </c>
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C600">
+        <v>282</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>28</v>
+      </c>
+      <c r="B601" t="s">
+        <v>6</v>
+      </c>
+      <c r="C601">
+        <v>282</v>
+      </c>
+      <c r="D601">
+        <v>3</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>29</v>
+      </c>
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602">
+        <v>282</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>29</v>
+      </c>
+      <c r="B603" t="s">
+        <v>6</v>
+      </c>
+      <c r="C603">
+        <v>282</v>
+      </c>
+      <c r="D603">
+        <v>0</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>30</v>
+      </c>
+      <c r="B604" t="s">
+        <v>5</v>
+      </c>
+      <c r="C604">
+        <v>282</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>30</v>
+      </c>
+      <c r="B605" t="s">
+        <v>6</v>
+      </c>
+      <c r="C605">
+        <v>282</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>31</v>
+      </c>
+      <c r="B606" t="s">
+        <v>5</v>
+      </c>
+      <c r="C606">
+        <v>282</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>31</v>
+      </c>
+      <c r="B607" t="s">
+        <v>6</v>
+      </c>
+      <c r="C607">
+        <v>282</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>32</v>
+      </c>
+      <c r="B608" t="s">
+        <v>5</v>
+      </c>
+      <c r="C608">
+        <v>282</v>
+      </c>
+      <c r="D608">
+        <v>3</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>32</v>
+      </c>
+      <c r="B609" t="s">
+        <v>6</v>
+      </c>
+      <c r="C609">
+        <v>282</v>
+      </c>
+      <c r="D609">
+        <v>2</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>33</v>
+      </c>
+      <c r="B610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C610">
+        <v>282</v>
+      </c>
+      <c r="D610">
+        <v>0</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>33</v>
+      </c>
+      <c r="B611" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611">
+        <v>282</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>34</v>
+      </c>
+      <c r="B612" t="s">
+        <v>5</v>
+      </c>
+      <c r="C612">
+        <v>282</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>34</v>
+      </c>
+      <c r="B613" t="s">
+        <v>6</v>
+      </c>
+      <c r="C613">
+        <v>282</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/fly_part2.xlsx
+++ b/data/fitness_development/fly_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_14/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFD7433-D11C-B24E-A6FD-F115AB11E9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{077DEEC6-D762-E444-AE5C-8E0DAE5890F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB267A-8CE1-0F4E-97AE-D44F1974EE08}">
-  <dimension ref="A1:E613"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A605" zoomScale="305" workbookViewId="0">
-      <selection activeCell="D614" sqref="D614"/>
+    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F675" sqref="F675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10860,6 +10860,1162 @@
         <v>0</v>
       </c>
     </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>1</v>
+      </c>
+      <c r="B614" t="s">
+        <v>5</v>
+      </c>
+      <c r="C614">
+        <v>291</v>
+      </c>
+      <c r="D614">
+        <v>3</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>1</v>
+      </c>
+      <c r="B615" t="s">
+        <v>6</v>
+      </c>
+      <c r="C615">
+        <v>291</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>2</v>
+      </c>
+      <c r="B616" t="s">
+        <v>5</v>
+      </c>
+      <c r="C616">
+        <v>291</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+      <c r="E616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>2</v>
+      </c>
+      <c r="B617" t="s">
+        <v>6</v>
+      </c>
+      <c r="C617">
+        <v>291</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>3</v>
+      </c>
+      <c r="B618" t="s">
+        <v>5</v>
+      </c>
+      <c r="C618">
+        <v>291</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>3</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+      <c r="C619">
+        <v>291</v>
+      </c>
+      <c r="D619">
+        <v>2</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>4</v>
+      </c>
+      <c r="B620" t="s">
+        <v>5</v>
+      </c>
+      <c r="C620">
+        <v>291</v>
+      </c>
+      <c r="D620">
+        <v>5</v>
+      </c>
+      <c r="E620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>4</v>
+      </c>
+      <c r="B621" t="s">
+        <v>6</v>
+      </c>
+      <c r="C621">
+        <v>291</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>5</v>
+      </c>
+      <c r="B622" t="s">
+        <v>5</v>
+      </c>
+      <c r="C622">
+        <v>291</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>5</v>
+      </c>
+      <c r="B623" t="s">
+        <v>6</v>
+      </c>
+      <c r="C623">
+        <v>291</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>6</v>
+      </c>
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+      <c r="C624">
+        <v>291</v>
+      </c>
+      <c r="D624">
+        <v>0</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>6</v>
+      </c>
+      <c r="B625" t="s">
+        <v>6</v>
+      </c>
+      <c r="C625">
+        <v>291</v>
+      </c>
+      <c r="D625">
+        <v>4</v>
+      </c>
+      <c r="E625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>7</v>
+      </c>
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626">
+        <v>291</v>
+      </c>
+      <c r="D626">
+        <v>3</v>
+      </c>
+      <c r="E626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>7</v>
+      </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+      <c r="C627">
+        <v>291</v>
+      </c>
+      <c r="D627">
+        <v>0</v>
+      </c>
+      <c r="E627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>8</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+      <c r="C628">
+        <v>291</v>
+      </c>
+      <c r="D628">
+        <v>0</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>8</v>
+      </c>
+      <c r="B629" t="s">
+        <v>6</v>
+      </c>
+      <c r="C629">
+        <v>291</v>
+      </c>
+      <c r="D629">
+        <v>29</v>
+      </c>
+      <c r="E629">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>9</v>
+      </c>
+      <c r="B630" t="s">
+        <v>5</v>
+      </c>
+      <c r="C630">
+        <v>291</v>
+      </c>
+      <c r="D630">
+        <v>0</v>
+      </c>
+      <c r="E630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>9</v>
+      </c>
+      <c r="B631" t="s">
+        <v>6</v>
+      </c>
+      <c r="C631">
+        <v>291</v>
+      </c>
+      <c r="D631">
+        <v>6</v>
+      </c>
+      <c r="E631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>10</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632">
+        <v>291</v>
+      </c>
+      <c r="D632">
+        <v>2</v>
+      </c>
+      <c r="E632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>10</v>
+      </c>
+      <c r="B633" t="s">
+        <v>6</v>
+      </c>
+      <c r="C633">
+        <v>291</v>
+      </c>
+      <c r="D633">
+        <v>2</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>11</v>
+      </c>
+      <c r="B634" t="s">
+        <v>5</v>
+      </c>
+      <c r="C634">
+        <v>291</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>11</v>
+      </c>
+      <c r="B635" t="s">
+        <v>6</v>
+      </c>
+      <c r="C635">
+        <v>291</v>
+      </c>
+      <c r="D635">
+        <v>0</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>12</v>
+      </c>
+      <c r="B636" t="s">
+        <v>5</v>
+      </c>
+      <c r="C636">
+        <v>291</v>
+      </c>
+      <c r="D636">
+        <v>0</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>12</v>
+      </c>
+      <c r="B637" t="s">
+        <v>6</v>
+      </c>
+      <c r="C637">
+        <v>291</v>
+      </c>
+      <c r="D637">
+        <v>0</v>
+      </c>
+      <c r="E637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>13</v>
+      </c>
+      <c r="B638" t="s">
+        <v>5</v>
+      </c>
+      <c r="C638">
+        <v>291</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>13</v>
+      </c>
+      <c r="B639" t="s">
+        <v>6</v>
+      </c>
+      <c r="C639">
+        <v>291</v>
+      </c>
+      <c r="D639">
+        <v>3</v>
+      </c>
+      <c r="E639">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>14</v>
+      </c>
+      <c r="B640" t="s">
+        <v>5</v>
+      </c>
+      <c r="C640">
+        <v>291</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>14</v>
+      </c>
+      <c r="B641" t="s">
+        <v>6</v>
+      </c>
+      <c r="C641">
+        <v>291</v>
+      </c>
+      <c r="D641">
+        <v>1</v>
+      </c>
+      <c r="E641">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>15</v>
+      </c>
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="C642">
+        <v>291</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>15</v>
+      </c>
+      <c r="B643" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643">
+        <v>291</v>
+      </c>
+      <c r="D643">
+        <v>0</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>16</v>
+      </c>
+      <c r="B644" t="s">
+        <v>5</v>
+      </c>
+      <c r="C644">
+        <v>291</v>
+      </c>
+      <c r="D644">
+        <v>7</v>
+      </c>
+      <c r="E644">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>16</v>
+      </c>
+      <c r="B645" t="s">
+        <v>6</v>
+      </c>
+      <c r="C645">
+        <v>291</v>
+      </c>
+      <c r="D645">
+        <v>0</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>17</v>
+      </c>
+      <c r="B646" t="s">
+        <v>5</v>
+      </c>
+      <c r="C646">
+        <v>291</v>
+      </c>
+      <c r="D646">
+        <v>0</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>17</v>
+      </c>
+      <c r="B647" t="s">
+        <v>6</v>
+      </c>
+      <c r="C647">
+        <v>291</v>
+      </c>
+      <c r="D647">
+        <v>0</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>18</v>
+      </c>
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648">
+        <v>291</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>18</v>
+      </c>
+      <c r="B649" t="s">
+        <v>6</v>
+      </c>
+      <c r="C649">
+        <v>291</v>
+      </c>
+      <c r="D649">
+        <v>3</v>
+      </c>
+      <c r="E649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>19</v>
+      </c>
+      <c r="B650" t="s">
+        <v>5</v>
+      </c>
+      <c r="C650">
+        <v>291</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>19</v>
+      </c>
+      <c r="B651" t="s">
+        <v>6</v>
+      </c>
+      <c r="C651">
+        <v>291</v>
+      </c>
+      <c r="D651">
+        <v>4</v>
+      </c>
+      <c r="E651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>20</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5</v>
+      </c>
+      <c r="C652">
+        <v>291</v>
+      </c>
+      <c r="D652">
+        <v>0</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>20</v>
+      </c>
+      <c r="B653" t="s">
+        <v>6</v>
+      </c>
+      <c r="C653">
+        <v>291</v>
+      </c>
+      <c r="D653">
+        <v>2</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>21</v>
+      </c>
+      <c r="B654" t="s">
+        <v>5</v>
+      </c>
+      <c r="C654">
+        <v>291</v>
+      </c>
+      <c r="D654">
+        <v>0</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>21</v>
+      </c>
+      <c r="B655" t="s">
+        <v>6</v>
+      </c>
+      <c r="C655">
+        <v>291</v>
+      </c>
+      <c r="D655">
+        <v>2</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>22</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+      <c r="C656">
+        <v>291</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>22</v>
+      </c>
+      <c r="B657" t="s">
+        <v>6</v>
+      </c>
+      <c r="C657">
+        <v>291</v>
+      </c>
+      <c r="D657">
+        <v>4</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>23</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+      <c r="C658">
+        <v>291</v>
+      </c>
+      <c r="D658">
+        <v>0</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>23</v>
+      </c>
+      <c r="B659" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659">
+        <v>291</v>
+      </c>
+      <c r="D659">
+        <v>0</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>24</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+      <c r="C660">
+        <v>291</v>
+      </c>
+      <c r="D660">
+        <v>0</v>
+      </c>
+      <c r="E660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>24</v>
+      </c>
+      <c r="B661" t="s">
+        <v>6</v>
+      </c>
+      <c r="C661">
+        <v>291</v>
+      </c>
+      <c r="D661">
+        <v>2</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>25</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662">
+        <v>291</v>
+      </c>
+      <c r="D662">
+        <v>3</v>
+      </c>
+      <c r="E662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>25</v>
+      </c>
+      <c r="B663" t="s">
+        <v>6</v>
+      </c>
+      <c r="C663">
+        <v>291</v>
+      </c>
+      <c r="D663">
+        <v>5</v>
+      </c>
+      <c r="E663">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>26</v>
+      </c>
+      <c r="B664" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664">
+        <v>291</v>
+      </c>
+      <c r="D664">
+        <v>9</v>
+      </c>
+      <c r="E664">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>26</v>
+      </c>
+      <c r="B665" t="s">
+        <v>6</v>
+      </c>
+      <c r="C665">
+        <v>291</v>
+      </c>
+      <c r="D665">
+        <v>4</v>
+      </c>
+      <c r="E665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>27</v>
+      </c>
+      <c r="B666" t="s">
+        <v>5</v>
+      </c>
+      <c r="C666">
+        <v>291</v>
+      </c>
+      <c r="D666">
+        <v>1</v>
+      </c>
+      <c r="E666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>27</v>
+      </c>
+      <c r="B667" t="s">
+        <v>6</v>
+      </c>
+      <c r="C667">
+        <v>291</v>
+      </c>
+      <c r="D667">
+        <v>8</v>
+      </c>
+      <c r="E667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>28</v>
+      </c>
+      <c r="B668" t="s">
+        <v>5</v>
+      </c>
+      <c r="C668">
+        <v>291</v>
+      </c>
+      <c r="D668">
+        <v>0</v>
+      </c>
+      <c r="E668">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>28</v>
+      </c>
+      <c r="B669" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669">
+        <v>291</v>
+      </c>
+      <c r="D669">
+        <v>5</v>
+      </c>
+      <c r="E669">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>29</v>
+      </c>
+      <c r="B670" t="s">
+        <v>5</v>
+      </c>
+      <c r="C670">
+        <v>291</v>
+      </c>
+      <c r="D670">
+        <v>1</v>
+      </c>
+      <c r="E670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>29</v>
+      </c>
+      <c r="B671" t="s">
+        <v>6</v>
+      </c>
+      <c r="C671">
+        <v>291</v>
+      </c>
+      <c r="D671">
+        <v>1</v>
+      </c>
+      <c r="E671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>30</v>
+      </c>
+      <c r="B672" t="s">
+        <v>5</v>
+      </c>
+      <c r="C672">
+        <v>291</v>
+      </c>
+      <c r="D672">
+        <v>1</v>
+      </c>
+      <c r="E672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>30</v>
+      </c>
+      <c r="B673" t="s">
+        <v>6</v>
+      </c>
+      <c r="C673">
+        <v>291</v>
+      </c>
+      <c r="D673">
+        <v>2</v>
+      </c>
+      <c r="E673">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>31</v>
+      </c>
+      <c r="B674" t="s">
+        <v>5</v>
+      </c>
+      <c r="C674">
+        <v>291</v>
+      </c>
+      <c r="D674">
+        <v>1</v>
+      </c>
+      <c r="E674">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>31</v>
+      </c>
+      <c r="B675" t="s">
+        <v>6</v>
+      </c>
+      <c r="C675">
+        <v>291</v>
+      </c>
+      <c r="D675">
+        <v>1</v>
+      </c>
+      <c r="E675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>32</v>
+      </c>
+      <c r="B676" t="s">
+        <v>5</v>
+      </c>
+      <c r="C676">
+        <v>291</v>
+      </c>
+      <c r="D676">
+        <v>3</v>
+      </c>
+      <c r="E676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>32</v>
+      </c>
+      <c r="B677" t="s">
+        <v>6</v>
+      </c>
+      <c r="C677">
+        <v>291</v>
+      </c>
+      <c r="D677">
+        <v>3</v>
+      </c>
+      <c r="E677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>33</v>
+      </c>
+      <c r="B678" t="s">
+        <v>5</v>
+      </c>
+      <c r="C678">
+        <v>291</v>
+      </c>
+      <c r="D678">
+        <v>1</v>
+      </c>
+      <c r="E678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>33</v>
+      </c>
+      <c r="B679" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679">
+        <v>291</v>
+      </c>
+      <c r="D679">
+        <v>1</v>
+      </c>
+      <c r="E679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>34</v>
+      </c>
+      <c r="B680" t="s">
+        <v>5</v>
+      </c>
+      <c r="C680">
+        <v>291</v>
+      </c>
+      <c r="D680">
+        <v>1</v>
+      </c>
+      <c r="E680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>34</v>
+      </c>
+      <c r="B681" t="s">
+        <v>6</v>
+      </c>
+      <c r="C681">
+        <v>291</v>
+      </c>
+      <c r="D681">
+        <v>1</v>
+      </c>
+      <c r="E681">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fitness_development/fly_part2.xlsx
+++ b/data/fitness_development/fly_part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster_14/data/fitness_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077DEEC6-D762-E444-AE5C-8E0DAE5890F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43B3F74-2430-E340-B201-06751E16BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{BB242E00-5CB3-A84F-BA7A-96A75344F1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="7">
   <si>
     <t>vial</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB267A-8CE1-0F4E-97AE-D44F1974EE08}">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E1157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F675" sqref="F675"/>
+    <sheetView tabSelected="1" topLeftCell="A1109" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H1124" sqref="H1124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12016,6 +12016,8098 @@
         <v>1</v>
       </c>
     </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>1</v>
+      </c>
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+      <c r="C682">
+        <v>305</v>
+      </c>
+      <c r="D682">
+        <v>1</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>1</v>
+      </c>
+      <c r="B683" t="s">
+        <v>6</v>
+      </c>
+      <c r="C683">
+        <v>305</v>
+      </c>
+      <c r="D683">
+        <v>1</v>
+      </c>
+      <c r="E683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>2</v>
+      </c>
+      <c r="B684" t="s">
+        <v>5</v>
+      </c>
+      <c r="C684">
+        <v>305</v>
+      </c>
+      <c r="D684">
+        <v>1</v>
+      </c>
+      <c r="E684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>2</v>
+      </c>
+      <c r="B685" t="s">
+        <v>6</v>
+      </c>
+      <c r="C685">
+        <v>305</v>
+      </c>
+      <c r="D685">
+        <v>0</v>
+      </c>
+      <c r="E685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>3</v>
+      </c>
+      <c r="B686" t="s">
+        <v>5</v>
+      </c>
+      <c r="C686">
+        <v>305</v>
+      </c>
+      <c r="D686">
+        <v>2</v>
+      </c>
+      <c r="E686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>3</v>
+      </c>
+      <c r="B687" t="s">
+        <v>6</v>
+      </c>
+      <c r="C687">
+        <v>305</v>
+      </c>
+      <c r="D687">
+        <v>2</v>
+      </c>
+      <c r="E687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>4</v>
+      </c>
+      <c r="B688" t="s">
+        <v>5</v>
+      </c>
+      <c r="C688">
+        <v>305</v>
+      </c>
+      <c r="D688">
+        <v>1</v>
+      </c>
+      <c r="E688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>4</v>
+      </c>
+      <c r="B689" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689">
+        <v>305</v>
+      </c>
+      <c r="D689">
+        <v>1</v>
+      </c>
+      <c r="E689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>5</v>
+      </c>
+      <c r="B690" t="s">
+        <v>5</v>
+      </c>
+      <c r="C690">
+        <v>305</v>
+      </c>
+      <c r="D690">
+        <v>1</v>
+      </c>
+      <c r="E690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>5</v>
+      </c>
+      <c r="B691" t="s">
+        <v>6</v>
+      </c>
+      <c r="C691">
+        <v>305</v>
+      </c>
+      <c r="D691">
+        <v>0</v>
+      </c>
+      <c r="E691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>6</v>
+      </c>
+      <c r="B692" t="s">
+        <v>5</v>
+      </c>
+      <c r="C692">
+        <v>305</v>
+      </c>
+      <c r="D692">
+        <v>0</v>
+      </c>
+      <c r="E692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>6</v>
+      </c>
+      <c r="B693" t="s">
+        <v>6</v>
+      </c>
+      <c r="C693">
+        <v>305</v>
+      </c>
+      <c r="D693">
+        <v>0</v>
+      </c>
+      <c r="E693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>7</v>
+      </c>
+      <c r="B694" t="s">
+        <v>5</v>
+      </c>
+      <c r="C694">
+        <v>305</v>
+      </c>
+      <c r="D694">
+        <v>0</v>
+      </c>
+      <c r="E694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>7</v>
+      </c>
+      <c r="B695" t="s">
+        <v>6</v>
+      </c>
+      <c r="C695">
+        <v>305</v>
+      </c>
+      <c r="D695">
+        <v>2</v>
+      </c>
+      <c r="E695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>8</v>
+      </c>
+      <c r="B696" t="s">
+        <v>5</v>
+      </c>
+      <c r="C696">
+        <v>305</v>
+      </c>
+      <c r="D696">
+        <v>0</v>
+      </c>
+      <c r="E696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>8</v>
+      </c>
+      <c r="B697" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697">
+        <v>305</v>
+      </c>
+      <c r="D697">
+        <v>8</v>
+      </c>
+      <c r="E697">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>9</v>
+      </c>
+      <c r="B698" t="s">
+        <v>5</v>
+      </c>
+      <c r="C698">
+        <v>305</v>
+      </c>
+      <c r="D698">
+        <v>0</v>
+      </c>
+      <c r="E698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>9</v>
+      </c>
+      <c r="B699" t="s">
+        <v>6</v>
+      </c>
+      <c r="C699">
+        <v>305</v>
+      </c>
+      <c r="D699">
+        <v>2</v>
+      </c>
+      <c r="E699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>10</v>
+      </c>
+      <c r="B700" t="s">
+        <v>5</v>
+      </c>
+      <c r="C700">
+        <v>305</v>
+      </c>
+      <c r="D700">
+        <v>4</v>
+      </c>
+      <c r="E700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>10</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701">
+        <v>305</v>
+      </c>
+      <c r="D701">
+        <v>2</v>
+      </c>
+      <c r="E701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>11</v>
+      </c>
+      <c r="B702" t="s">
+        <v>5</v>
+      </c>
+      <c r="C702">
+        <v>305</v>
+      </c>
+      <c r="D702">
+        <v>0</v>
+      </c>
+      <c r="E702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>11</v>
+      </c>
+      <c r="B703" t="s">
+        <v>6</v>
+      </c>
+      <c r="C703">
+        <v>305</v>
+      </c>
+      <c r="D703">
+        <v>0</v>
+      </c>
+      <c r="E703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>12</v>
+      </c>
+      <c r="B704" t="s">
+        <v>5</v>
+      </c>
+      <c r="C704">
+        <v>305</v>
+      </c>
+      <c r="D704">
+        <v>0</v>
+      </c>
+      <c r="E704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>12</v>
+      </c>
+      <c r="B705" t="s">
+        <v>6</v>
+      </c>
+      <c r="C705">
+        <v>305</v>
+      </c>
+      <c r="D705">
+        <v>0</v>
+      </c>
+      <c r="E705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>13</v>
+      </c>
+      <c r="B706" t="s">
+        <v>5</v>
+      </c>
+      <c r="C706">
+        <v>305</v>
+      </c>
+      <c r="D706">
+        <v>0</v>
+      </c>
+      <c r="E706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>13</v>
+      </c>
+      <c r="B707" t="s">
+        <v>6</v>
+      </c>
+      <c r="C707">
+        <v>305</v>
+      </c>
+      <c r="D707">
+        <v>3</v>
+      </c>
+      <c r="E707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>14</v>
+      </c>
+      <c r="B708" t="s">
+        <v>5</v>
+      </c>
+      <c r="C708">
+        <v>305</v>
+      </c>
+      <c r="D708">
+        <v>1</v>
+      </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>14</v>
+      </c>
+      <c r="B709" t="s">
+        <v>6</v>
+      </c>
+      <c r="C709">
+        <v>305</v>
+      </c>
+      <c r="D709">
+        <v>1</v>
+      </c>
+      <c r="E709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>15</v>
+      </c>
+      <c r="B710" t="s">
+        <v>5</v>
+      </c>
+      <c r="C710">
+        <v>305</v>
+      </c>
+      <c r="D710">
+        <v>0</v>
+      </c>
+      <c r="E710">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>15</v>
+      </c>
+      <c r="B711" t="s">
+        <v>6</v>
+      </c>
+      <c r="C711">
+        <v>305</v>
+      </c>
+      <c r="D711">
+        <v>0</v>
+      </c>
+      <c r="E711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>16</v>
+      </c>
+      <c r="B712" t="s">
+        <v>5</v>
+      </c>
+      <c r="C712">
+        <v>305</v>
+      </c>
+      <c r="D712">
+        <v>1</v>
+      </c>
+      <c r="E712">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>16</v>
+      </c>
+      <c r="B713" t="s">
+        <v>6</v>
+      </c>
+      <c r="C713">
+        <v>305</v>
+      </c>
+      <c r="D713">
+        <v>0</v>
+      </c>
+      <c r="E713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>17</v>
+      </c>
+      <c r="B714" t="s">
+        <v>5</v>
+      </c>
+      <c r="C714">
+        <v>305</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>17</v>
+      </c>
+      <c r="B715" t="s">
+        <v>6</v>
+      </c>
+      <c r="C715">
+        <v>305</v>
+      </c>
+      <c r="D715">
+        <v>1</v>
+      </c>
+      <c r="E715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>18</v>
+      </c>
+      <c r="B716" t="s">
+        <v>5</v>
+      </c>
+      <c r="C716">
+        <v>305</v>
+      </c>
+      <c r="D716">
+        <v>1</v>
+      </c>
+      <c r="E716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>18</v>
+      </c>
+      <c r="B717" t="s">
+        <v>6</v>
+      </c>
+      <c r="C717">
+        <v>305</v>
+      </c>
+      <c r="D717">
+        <v>0</v>
+      </c>
+      <c r="E717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>19</v>
+      </c>
+      <c r="B718" t="s">
+        <v>5</v>
+      </c>
+      <c r="C718">
+        <v>305</v>
+      </c>
+      <c r="D718">
+        <v>0</v>
+      </c>
+      <c r="E718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>19</v>
+      </c>
+      <c r="B719" t="s">
+        <v>6</v>
+      </c>
+      <c r="C719">
+        <v>305</v>
+      </c>
+      <c r="D719">
+        <v>1</v>
+      </c>
+      <c r="E719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>20</v>
+      </c>
+      <c r="B720" t="s">
+        <v>5</v>
+      </c>
+      <c r="C720">
+        <v>305</v>
+      </c>
+      <c r="D720">
+        <v>0</v>
+      </c>
+      <c r="E720">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>20</v>
+      </c>
+      <c r="B721" t="s">
+        <v>6</v>
+      </c>
+      <c r="C721">
+        <v>305</v>
+      </c>
+      <c r="D721">
+        <v>0</v>
+      </c>
+      <c r="E721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>21</v>
+      </c>
+      <c r="B722" t="s">
+        <v>5</v>
+      </c>
+      <c r="C722">
+        <v>305</v>
+      </c>
+      <c r="D722">
+        <v>1</v>
+      </c>
+      <c r="E722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>21</v>
+      </c>
+      <c r="B723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C723">
+        <v>305</v>
+      </c>
+      <c r="D723">
+        <v>0</v>
+      </c>
+      <c r="E723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>22</v>
+      </c>
+      <c r="B724" t="s">
+        <v>5</v>
+      </c>
+      <c r="C724">
+        <v>305</v>
+      </c>
+      <c r="D724">
+        <v>0</v>
+      </c>
+      <c r="E724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>22</v>
+      </c>
+      <c r="B725" t="s">
+        <v>6</v>
+      </c>
+      <c r="C725">
+        <v>305</v>
+      </c>
+      <c r="D725">
+        <v>0</v>
+      </c>
+      <c r="E725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>23</v>
+      </c>
+      <c r="B726" t="s">
+        <v>5</v>
+      </c>
+      <c r="C726">
+        <v>305</v>
+      </c>
+      <c r="D726">
+        <v>0</v>
+      </c>
+      <c r="E726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>23</v>
+      </c>
+      <c r="B727" t="s">
+        <v>6</v>
+      </c>
+      <c r="C727">
+        <v>305</v>
+      </c>
+      <c r="D727">
+        <v>1</v>
+      </c>
+      <c r="E727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>24</v>
+      </c>
+      <c r="B728" t="s">
+        <v>5</v>
+      </c>
+      <c r="C728">
+        <v>305</v>
+      </c>
+      <c r="D728">
+        <v>0</v>
+      </c>
+      <c r="E728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>24</v>
+      </c>
+      <c r="B729" t="s">
+        <v>6</v>
+      </c>
+      <c r="C729">
+        <v>305</v>
+      </c>
+      <c r="D729">
+        <v>1</v>
+      </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>25</v>
+      </c>
+      <c r="B730" t="s">
+        <v>5</v>
+      </c>
+      <c r="C730">
+        <v>305</v>
+      </c>
+      <c r="D730">
+        <v>1</v>
+      </c>
+      <c r="E730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>25</v>
+      </c>
+      <c r="B731" t="s">
+        <v>6</v>
+      </c>
+      <c r="C731">
+        <v>305</v>
+      </c>
+      <c r="D731">
+        <v>1</v>
+      </c>
+      <c r="E731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>26</v>
+      </c>
+      <c r="B732" t="s">
+        <v>5</v>
+      </c>
+      <c r="C732">
+        <v>305</v>
+      </c>
+      <c r="D732">
+        <v>4</v>
+      </c>
+      <c r="E732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>26</v>
+      </c>
+      <c r="B733" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733">
+        <v>305</v>
+      </c>
+      <c r="D733">
+        <v>3</v>
+      </c>
+      <c r="E733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>27</v>
+      </c>
+      <c r="B734" t="s">
+        <v>5</v>
+      </c>
+      <c r="C734">
+        <v>305</v>
+      </c>
+      <c r="D734">
+        <v>1</v>
+      </c>
+      <c r="E734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>27</v>
+      </c>
+      <c r="B735" t="s">
+        <v>6</v>
+      </c>
+      <c r="C735">
+        <v>305</v>
+      </c>
+      <c r="D735">
+        <v>2</v>
+      </c>
+      <c r="E735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>28</v>
+      </c>
+      <c r="B736" t="s">
+        <v>5</v>
+      </c>
+      <c r="C736">
+        <v>305</v>
+      </c>
+      <c r="D736">
+        <v>3</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>28</v>
+      </c>
+      <c r="B737" t="s">
+        <v>6</v>
+      </c>
+      <c r="C737">
+        <v>305</v>
+      </c>
+      <c r="D737">
+        <v>1</v>
+      </c>
+      <c r="E737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>29</v>
+      </c>
+      <c r="B738" t="s">
+        <v>5</v>
+      </c>
+      <c r="C738">
+        <v>305</v>
+      </c>
+      <c r="D738">
+        <v>1</v>
+      </c>
+      <c r="E738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>29</v>
+      </c>
+      <c r="B739" t="s">
+        <v>6</v>
+      </c>
+      <c r="C739">
+        <v>305</v>
+      </c>
+      <c r="D739">
+        <v>0</v>
+      </c>
+      <c r="E739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>30</v>
+      </c>
+      <c r="B740" t="s">
+        <v>5</v>
+      </c>
+      <c r="C740">
+        <v>305</v>
+      </c>
+      <c r="D740">
+        <v>0</v>
+      </c>
+      <c r="E740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>30</v>
+      </c>
+      <c r="B741" t="s">
+        <v>6</v>
+      </c>
+      <c r="C741">
+        <v>305</v>
+      </c>
+      <c r="D741">
+        <v>1</v>
+      </c>
+      <c r="E741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>31</v>
+      </c>
+      <c r="B742" t="s">
+        <v>5</v>
+      </c>
+      <c r="C742">
+        <v>305</v>
+      </c>
+      <c r="D742">
+        <v>0</v>
+      </c>
+      <c r="E742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>31</v>
+      </c>
+      <c r="B743" t="s">
+        <v>6</v>
+      </c>
+      <c r="C743">
+        <v>305</v>
+      </c>
+      <c r="D743">
+        <v>0</v>
+      </c>
+      <c r="E743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>32</v>
+      </c>
+      <c r="B744" t="s">
+        <v>5</v>
+      </c>
+      <c r="C744">
+        <v>305</v>
+      </c>
+      <c r="D744">
+        <v>0</v>
+      </c>
+      <c r="E744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>32</v>
+      </c>
+      <c r="B745" t="s">
+        <v>6</v>
+      </c>
+      <c r="C745">
+        <v>305</v>
+      </c>
+      <c r="D745">
+        <v>0</v>
+      </c>
+      <c r="E745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>33</v>
+      </c>
+      <c r="B746" t="s">
+        <v>5</v>
+      </c>
+      <c r="C746">
+        <v>305</v>
+      </c>
+      <c r="D746">
+        <v>2</v>
+      </c>
+      <c r="E746">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>33</v>
+      </c>
+      <c r="B747" t="s">
+        <v>6</v>
+      </c>
+      <c r="C747">
+        <v>305</v>
+      </c>
+      <c r="D747">
+        <v>1</v>
+      </c>
+      <c r="E747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>34</v>
+      </c>
+      <c r="B748" t="s">
+        <v>5</v>
+      </c>
+      <c r="C748">
+        <v>305</v>
+      </c>
+      <c r="D748">
+        <v>0</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>34</v>
+      </c>
+      <c r="B749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749">
+        <v>305</v>
+      </c>
+      <c r="D749">
+        <v>0</v>
+      </c>
+      <c r="E749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>1</v>
+      </c>
+      <c r="B750" t="s">
+        <v>5</v>
+      </c>
+      <c r="C750">
+        <v>314</v>
+      </c>
+      <c r="D750">
+        <v>1</v>
+      </c>
+      <c r="E750">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>1</v>
+      </c>
+      <c r="B751" t="s">
+        <v>6</v>
+      </c>
+      <c r="C751">
+        <v>314</v>
+      </c>
+      <c r="D751">
+        <v>1</v>
+      </c>
+      <c r="E751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>2</v>
+      </c>
+      <c r="B752" t="s">
+        <v>5</v>
+      </c>
+      <c r="C752">
+        <v>314</v>
+      </c>
+      <c r="D752">
+        <v>11</v>
+      </c>
+      <c r="E752">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>2</v>
+      </c>
+      <c r="B753" t="s">
+        <v>6</v>
+      </c>
+      <c r="C753">
+        <v>314</v>
+      </c>
+      <c r="D753">
+        <v>1</v>
+      </c>
+      <c r="E753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>3</v>
+      </c>
+      <c r="B754" t="s">
+        <v>5</v>
+      </c>
+      <c r="C754">
+        <v>314</v>
+      </c>
+      <c r="D754">
+        <v>1</v>
+      </c>
+      <c r="E754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>3</v>
+      </c>
+      <c r="B755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C755">
+        <v>314</v>
+      </c>
+      <c r="D755">
+        <v>1</v>
+      </c>
+      <c r="E755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>4</v>
+      </c>
+      <c r="B756" t="s">
+        <v>5</v>
+      </c>
+      <c r="C756">
+        <v>314</v>
+      </c>
+      <c r="D756">
+        <v>7</v>
+      </c>
+      <c r="E756">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>4</v>
+      </c>
+      <c r="B757" t="s">
+        <v>6</v>
+      </c>
+      <c r="C757">
+        <v>314</v>
+      </c>
+      <c r="D757">
+        <v>2</v>
+      </c>
+      <c r="E757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>5</v>
+      </c>
+      <c r="B758" t="s">
+        <v>5</v>
+      </c>
+      <c r="C758">
+        <v>314</v>
+      </c>
+      <c r="D758">
+        <v>0</v>
+      </c>
+      <c r="E758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>5</v>
+      </c>
+      <c r="B759" t="s">
+        <v>6</v>
+      </c>
+      <c r="C759">
+        <v>314</v>
+      </c>
+      <c r="D759">
+        <v>1</v>
+      </c>
+      <c r="E759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>6</v>
+      </c>
+      <c r="B760" t="s">
+        <v>5</v>
+      </c>
+      <c r="C760">
+        <v>314</v>
+      </c>
+      <c r="D760">
+        <v>3</v>
+      </c>
+      <c r="E760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>6</v>
+      </c>
+      <c r="B761" t="s">
+        <v>6</v>
+      </c>
+      <c r="C761">
+        <v>314</v>
+      </c>
+      <c r="D761">
+        <v>0</v>
+      </c>
+      <c r="E761">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>7</v>
+      </c>
+      <c r="B762" t="s">
+        <v>5</v>
+      </c>
+      <c r="C762">
+        <v>314</v>
+      </c>
+      <c r="D762">
+        <v>0</v>
+      </c>
+      <c r="E762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>7</v>
+      </c>
+      <c r="B763" t="s">
+        <v>6</v>
+      </c>
+      <c r="C763">
+        <v>314</v>
+      </c>
+      <c r="D763">
+        <v>21</v>
+      </c>
+      <c r="E763">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>8</v>
+      </c>
+      <c r="B764" t="s">
+        <v>5</v>
+      </c>
+      <c r="C764">
+        <v>314</v>
+      </c>
+      <c r="D764">
+        <v>0</v>
+      </c>
+      <c r="E764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>8</v>
+      </c>
+      <c r="B765" t="s">
+        <v>6</v>
+      </c>
+      <c r="C765">
+        <v>314</v>
+      </c>
+      <c r="D765">
+        <v>12</v>
+      </c>
+      <c r="E765">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>9</v>
+      </c>
+      <c r="B766" t="s">
+        <v>5</v>
+      </c>
+      <c r="C766">
+        <v>314</v>
+      </c>
+      <c r="D766">
+        <v>1</v>
+      </c>
+      <c r="E766">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>9</v>
+      </c>
+      <c r="B767" t="s">
+        <v>6</v>
+      </c>
+      <c r="C767">
+        <v>314</v>
+      </c>
+      <c r="D767">
+        <v>2</v>
+      </c>
+      <c r="E767">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>10</v>
+      </c>
+      <c r="B768" t="s">
+        <v>5</v>
+      </c>
+      <c r="C768">
+        <v>314</v>
+      </c>
+      <c r="D768">
+        <v>8</v>
+      </c>
+      <c r="E768">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>10</v>
+      </c>
+      <c r="B769" t="s">
+        <v>6</v>
+      </c>
+      <c r="C769">
+        <v>314</v>
+      </c>
+      <c r="D769">
+        <v>2</v>
+      </c>
+      <c r="E769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>11</v>
+      </c>
+      <c r="B770" t="s">
+        <v>5</v>
+      </c>
+      <c r="C770">
+        <v>314</v>
+      </c>
+      <c r="D770">
+        <v>0</v>
+      </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>11</v>
+      </c>
+      <c r="B771" t="s">
+        <v>6</v>
+      </c>
+      <c r="C771">
+        <v>314</v>
+      </c>
+      <c r="D771">
+        <v>0</v>
+      </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>12</v>
+      </c>
+      <c r="B772" t="s">
+        <v>5</v>
+      </c>
+      <c r="C772">
+        <v>314</v>
+      </c>
+      <c r="D772">
+        <v>0</v>
+      </c>
+      <c r="E772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>12</v>
+      </c>
+      <c r="B773" t="s">
+        <v>6</v>
+      </c>
+      <c r="C773">
+        <v>314</v>
+      </c>
+      <c r="D773">
+        <v>2</v>
+      </c>
+      <c r="E773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>13</v>
+      </c>
+      <c r="B774" t="s">
+        <v>5</v>
+      </c>
+      <c r="C774">
+        <v>314</v>
+      </c>
+      <c r="D774">
+        <v>2</v>
+      </c>
+      <c r="E774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>13</v>
+      </c>
+      <c r="B775" t="s">
+        <v>6</v>
+      </c>
+      <c r="C775">
+        <v>314</v>
+      </c>
+      <c r="D775">
+        <v>4</v>
+      </c>
+      <c r="E775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>14</v>
+      </c>
+      <c r="B776" t="s">
+        <v>5</v>
+      </c>
+      <c r="C776">
+        <v>314</v>
+      </c>
+      <c r="D776">
+        <v>0</v>
+      </c>
+      <c r="E776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>14</v>
+      </c>
+      <c r="B777" t="s">
+        <v>6</v>
+      </c>
+      <c r="C777">
+        <v>314</v>
+      </c>
+      <c r="D777">
+        <v>2</v>
+      </c>
+      <c r="E777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>15</v>
+      </c>
+      <c r="B778" t="s">
+        <v>5</v>
+      </c>
+      <c r="C778">
+        <v>314</v>
+      </c>
+      <c r="D778">
+        <v>1</v>
+      </c>
+      <c r="E778">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>15</v>
+      </c>
+      <c r="B779" t="s">
+        <v>6</v>
+      </c>
+      <c r="C779">
+        <v>314</v>
+      </c>
+      <c r="D779">
+        <v>3</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>16</v>
+      </c>
+      <c r="B780" t="s">
+        <v>5</v>
+      </c>
+      <c r="C780">
+        <v>314</v>
+      </c>
+      <c r="D780">
+        <v>8</v>
+      </c>
+      <c r="E780">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>16</v>
+      </c>
+      <c r="B781" t="s">
+        <v>6</v>
+      </c>
+      <c r="C781">
+        <v>314</v>
+      </c>
+      <c r="D781">
+        <v>2</v>
+      </c>
+      <c r="E781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>17</v>
+      </c>
+      <c r="B782" t="s">
+        <v>5</v>
+      </c>
+      <c r="C782">
+        <v>314</v>
+      </c>
+      <c r="D782">
+        <v>3</v>
+      </c>
+      <c r="E782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>17</v>
+      </c>
+      <c r="B783" t="s">
+        <v>6</v>
+      </c>
+      <c r="C783">
+        <v>314</v>
+      </c>
+      <c r="D783">
+        <v>2</v>
+      </c>
+      <c r="E783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>18</v>
+      </c>
+      <c r="B784" t="s">
+        <v>5</v>
+      </c>
+      <c r="C784">
+        <v>314</v>
+      </c>
+      <c r="D784">
+        <v>3</v>
+      </c>
+      <c r="E784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>18</v>
+      </c>
+      <c r="B785" t="s">
+        <v>6</v>
+      </c>
+      <c r="C785">
+        <v>314</v>
+      </c>
+      <c r="D785">
+        <v>2</v>
+      </c>
+      <c r="E785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>19</v>
+      </c>
+      <c r="B786" t="s">
+        <v>5</v>
+      </c>
+      <c r="C786">
+        <v>314</v>
+      </c>
+      <c r="D786">
+        <v>1</v>
+      </c>
+      <c r="E786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>19</v>
+      </c>
+      <c r="B787" t="s">
+        <v>6</v>
+      </c>
+      <c r="C787">
+        <v>314</v>
+      </c>
+      <c r="D787">
+        <v>2</v>
+      </c>
+      <c r="E787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>20</v>
+      </c>
+      <c r="B788" t="s">
+        <v>5</v>
+      </c>
+      <c r="C788">
+        <v>314</v>
+      </c>
+      <c r="D788">
+        <v>0</v>
+      </c>
+      <c r="E788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>20</v>
+      </c>
+      <c r="B789" t="s">
+        <v>6</v>
+      </c>
+      <c r="C789">
+        <v>314</v>
+      </c>
+      <c r="D789">
+        <v>2</v>
+      </c>
+      <c r="E789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>21</v>
+      </c>
+      <c r="B790" t="s">
+        <v>5</v>
+      </c>
+      <c r="C790">
+        <v>314</v>
+      </c>
+      <c r="D790">
+        <v>6</v>
+      </c>
+      <c r="E790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>21</v>
+      </c>
+      <c r="B791" t="s">
+        <v>6</v>
+      </c>
+      <c r="C791">
+        <v>314</v>
+      </c>
+      <c r="D791">
+        <v>2</v>
+      </c>
+      <c r="E791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>22</v>
+      </c>
+      <c r="B792" t="s">
+        <v>5</v>
+      </c>
+      <c r="C792">
+        <v>314</v>
+      </c>
+      <c r="D792">
+        <v>2</v>
+      </c>
+      <c r="E792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>22</v>
+      </c>
+      <c r="B793" t="s">
+        <v>6</v>
+      </c>
+      <c r="C793">
+        <v>314</v>
+      </c>
+      <c r="D793">
+        <v>0</v>
+      </c>
+      <c r="E793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>23</v>
+      </c>
+      <c r="B794" t="s">
+        <v>5</v>
+      </c>
+      <c r="C794">
+        <v>314</v>
+      </c>
+      <c r="D794">
+        <v>11</v>
+      </c>
+      <c r="E794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>23</v>
+      </c>
+      <c r="B795" t="s">
+        <v>6</v>
+      </c>
+      <c r="C795">
+        <v>314</v>
+      </c>
+      <c r="D795">
+        <v>1</v>
+      </c>
+      <c r="E795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>24</v>
+      </c>
+      <c r="B796" t="s">
+        <v>5</v>
+      </c>
+      <c r="C796">
+        <v>314</v>
+      </c>
+      <c r="D796">
+        <v>1</v>
+      </c>
+      <c r="E796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>24</v>
+      </c>
+      <c r="B797" t="s">
+        <v>6</v>
+      </c>
+      <c r="C797">
+        <v>314</v>
+      </c>
+      <c r="D797">
+        <v>5</v>
+      </c>
+      <c r="E797">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>25</v>
+      </c>
+      <c r="B798" t="s">
+        <v>5</v>
+      </c>
+      <c r="C798">
+        <v>314</v>
+      </c>
+      <c r="D798">
+        <v>9</v>
+      </c>
+      <c r="E798">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>25</v>
+      </c>
+      <c r="B799" t="s">
+        <v>6</v>
+      </c>
+      <c r="C799">
+        <v>314</v>
+      </c>
+      <c r="D799">
+        <v>8</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>26</v>
+      </c>
+      <c r="B800" t="s">
+        <v>5</v>
+      </c>
+      <c r="C800">
+        <v>314</v>
+      </c>
+      <c r="D800">
+        <v>8</v>
+      </c>
+      <c r="E800">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>26</v>
+      </c>
+      <c r="B801" t="s">
+        <v>6</v>
+      </c>
+      <c r="C801">
+        <v>314</v>
+      </c>
+      <c r="D801">
+        <v>10</v>
+      </c>
+      <c r="E801">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>27</v>
+      </c>
+      <c r="B802" t="s">
+        <v>5</v>
+      </c>
+      <c r="C802">
+        <v>314</v>
+      </c>
+      <c r="D802">
+        <v>2</v>
+      </c>
+      <c r="E802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>27</v>
+      </c>
+      <c r="B803" t="s">
+        <v>6</v>
+      </c>
+      <c r="C803">
+        <v>314</v>
+      </c>
+      <c r="D803">
+        <v>10</v>
+      </c>
+      <c r="E803">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>28</v>
+      </c>
+      <c r="B804" t="s">
+        <v>5</v>
+      </c>
+      <c r="C804">
+        <v>314</v>
+      </c>
+      <c r="D804">
+        <v>1</v>
+      </c>
+      <c r="E804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>28</v>
+      </c>
+      <c r="B805" t="s">
+        <v>6</v>
+      </c>
+      <c r="C805">
+        <v>314</v>
+      </c>
+      <c r="D805">
+        <v>1</v>
+      </c>
+      <c r="E805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>29</v>
+      </c>
+      <c r="B806" t="s">
+        <v>5</v>
+      </c>
+      <c r="C806">
+        <v>314</v>
+      </c>
+      <c r="D806">
+        <v>2</v>
+      </c>
+      <c r="E806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>29</v>
+      </c>
+      <c r="B807" t="s">
+        <v>6</v>
+      </c>
+      <c r="C807">
+        <v>314</v>
+      </c>
+      <c r="D807">
+        <v>6</v>
+      </c>
+      <c r="E807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>30</v>
+      </c>
+      <c r="B808" t="s">
+        <v>5</v>
+      </c>
+      <c r="C808">
+        <v>314</v>
+      </c>
+      <c r="D808">
+        <v>1</v>
+      </c>
+      <c r="E808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>30</v>
+      </c>
+      <c r="B809" t="s">
+        <v>6</v>
+      </c>
+      <c r="C809">
+        <v>314</v>
+      </c>
+      <c r="D809">
+        <v>0</v>
+      </c>
+      <c r="E809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>31</v>
+      </c>
+      <c r="B810" t="s">
+        <v>5</v>
+      </c>
+      <c r="C810">
+        <v>314</v>
+      </c>
+      <c r="D810">
+        <v>0</v>
+      </c>
+      <c r="E810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>31</v>
+      </c>
+      <c r="B811" t="s">
+        <v>6</v>
+      </c>
+      <c r="C811">
+        <v>314</v>
+      </c>
+      <c r="D811">
+        <v>3</v>
+      </c>
+      <c r="E811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>32</v>
+      </c>
+      <c r="B812" t="s">
+        <v>5</v>
+      </c>
+      <c r="C812">
+        <v>314</v>
+      </c>
+      <c r="D812">
+        <v>2</v>
+      </c>
+      <c r="E812">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>32</v>
+      </c>
+      <c r="B813" t="s">
+        <v>6</v>
+      </c>
+      <c r="C813">
+        <v>314</v>
+      </c>
+      <c r="D813">
+        <v>2</v>
+      </c>
+      <c r="E813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>33</v>
+      </c>
+      <c r="B814" t="s">
+        <v>5</v>
+      </c>
+      <c r="C814">
+        <v>314</v>
+      </c>
+      <c r="D814">
+        <v>0</v>
+      </c>
+      <c r="E814">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>33</v>
+      </c>
+      <c r="B815" t="s">
+        <v>6</v>
+      </c>
+      <c r="C815">
+        <v>314</v>
+      </c>
+      <c r="D815">
+        <v>2</v>
+      </c>
+      <c r="E815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>34</v>
+      </c>
+      <c r="B816" t="s">
+        <v>5</v>
+      </c>
+      <c r="C816">
+        <v>314</v>
+      </c>
+      <c r="D816">
+        <v>1</v>
+      </c>
+      <c r="E816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>34</v>
+      </c>
+      <c r="B817" t="s">
+        <v>6</v>
+      </c>
+      <c r="C817">
+        <v>314</v>
+      </c>
+      <c r="D817">
+        <v>0</v>
+      </c>
+      <c r="E817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>1</v>
+      </c>
+      <c r="B818" t="s">
+        <v>5</v>
+      </c>
+      <c r="C818">
+        <v>336</v>
+      </c>
+      <c r="D818">
+        <v>15</v>
+      </c>
+      <c r="E818">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>1</v>
+      </c>
+      <c r="B819" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819">
+        <v>336</v>
+      </c>
+      <c r="D819">
+        <v>8</v>
+      </c>
+      <c r="E819">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>2</v>
+      </c>
+      <c r="B820" t="s">
+        <v>5</v>
+      </c>
+      <c r="C820">
+        <v>336</v>
+      </c>
+      <c r="D820">
+        <v>5</v>
+      </c>
+      <c r="E820">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>2</v>
+      </c>
+      <c r="B821" t="s">
+        <v>6</v>
+      </c>
+      <c r="C821">
+        <v>336</v>
+      </c>
+      <c r="D821">
+        <v>4</v>
+      </c>
+      <c r="E821">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>3</v>
+      </c>
+      <c r="B822" t="s">
+        <v>5</v>
+      </c>
+      <c r="C822">
+        <v>336</v>
+      </c>
+      <c r="D822">
+        <v>14</v>
+      </c>
+      <c r="E822">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>3</v>
+      </c>
+      <c r="B823" t="s">
+        <v>6</v>
+      </c>
+      <c r="C823">
+        <v>336</v>
+      </c>
+      <c r="D823">
+        <v>1</v>
+      </c>
+      <c r="E823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>4</v>
+      </c>
+      <c r="B824" t="s">
+        <v>5</v>
+      </c>
+      <c r="C824">
+        <v>336</v>
+      </c>
+      <c r="D824">
+        <v>15</v>
+      </c>
+      <c r="E824">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>4</v>
+      </c>
+      <c r="B825" t="s">
+        <v>6</v>
+      </c>
+      <c r="C825">
+        <v>336</v>
+      </c>
+      <c r="D825">
+        <v>1</v>
+      </c>
+      <c r="E825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>5</v>
+      </c>
+      <c r="B826" t="s">
+        <v>5</v>
+      </c>
+      <c r="C826">
+        <v>336</v>
+      </c>
+      <c r="D826">
+        <v>3</v>
+      </c>
+      <c r="E826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>5</v>
+      </c>
+      <c r="B827" t="s">
+        <v>6</v>
+      </c>
+      <c r="C827">
+        <v>336</v>
+      </c>
+      <c r="D827">
+        <v>1</v>
+      </c>
+      <c r="E827">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>6</v>
+      </c>
+      <c r="B828" t="s">
+        <v>5</v>
+      </c>
+      <c r="C828">
+        <v>336</v>
+      </c>
+      <c r="D828">
+        <v>7</v>
+      </c>
+      <c r="E828">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>6</v>
+      </c>
+      <c r="B829" t="s">
+        <v>6</v>
+      </c>
+      <c r="C829">
+        <v>336</v>
+      </c>
+      <c r="D829">
+        <v>1</v>
+      </c>
+      <c r="E829">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>7</v>
+      </c>
+      <c r="B830" t="s">
+        <v>5</v>
+      </c>
+      <c r="C830">
+        <v>336</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>7</v>
+      </c>
+      <c r="B831" t="s">
+        <v>6</v>
+      </c>
+      <c r="C831">
+        <v>336</v>
+      </c>
+      <c r="D831">
+        <v>18</v>
+      </c>
+      <c r="E831">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>8</v>
+      </c>
+      <c r="B832" t="s">
+        <v>5</v>
+      </c>
+      <c r="C832">
+        <v>336</v>
+      </c>
+      <c r="D832">
+        <v>4</v>
+      </c>
+      <c r="E832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>8</v>
+      </c>
+      <c r="B833" t="s">
+        <v>6</v>
+      </c>
+      <c r="C833">
+        <v>336</v>
+      </c>
+      <c r="D833">
+        <v>34</v>
+      </c>
+      <c r="E833">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>9</v>
+      </c>
+      <c r="B834" t="s">
+        <v>5</v>
+      </c>
+      <c r="C834">
+        <v>336</v>
+      </c>
+      <c r="D834">
+        <v>2</v>
+      </c>
+      <c r="E834">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>9</v>
+      </c>
+      <c r="B835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835">
+        <v>336</v>
+      </c>
+      <c r="D835">
+        <v>12</v>
+      </c>
+      <c r="E835">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>10</v>
+      </c>
+      <c r="B836" t="s">
+        <v>5</v>
+      </c>
+      <c r="C836">
+        <v>336</v>
+      </c>
+      <c r="D836">
+        <v>23</v>
+      </c>
+      <c r="E836">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>10</v>
+      </c>
+      <c r="B837" t="s">
+        <v>6</v>
+      </c>
+      <c r="C837">
+        <v>336</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>11</v>
+      </c>
+      <c r="B838" t="s">
+        <v>5</v>
+      </c>
+      <c r="C838">
+        <v>336</v>
+      </c>
+      <c r="D838">
+        <v>1</v>
+      </c>
+      <c r="E838">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>11</v>
+      </c>
+      <c r="B839" t="s">
+        <v>6</v>
+      </c>
+      <c r="C839">
+        <v>336</v>
+      </c>
+      <c r="D839">
+        <v>3</v>
+      </c>
+      <c r="E839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>12</v>
+      </c>
+      <c r="B840" t="s">
+        <v>5</v>
+      </c>
+      <c r="C840">
+        <v>336</v>
+      </c>
+      <c r="D840">
+        <v>7</v>
+      </c>
+      <c r="E840">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>12</v>
+      </c>
+      <c r="B841" t="s">
+        <v>6</v>
+      </c>
+      <c r="C841">
+        <v>336</v>
+      </c>
+      <c r="D841">
+        <v>1</v>
+      </c>
+      <c r="E841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>13</v>
+      </c>
+      <c r="B842" t="s">
+        <v>5</v>
+      </c>
+      <c r="C842">
+        <v>336</v>
+      </c>
+      <c r="D842">
+        <v>2</v>
+      </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>13</v>
+      </c>
+      <c r="B843" t="s">
+        <v>6</v>
+      </c>
+      <c r="C843">
+        <v>336</v>
+      </c>
+      <c r="D843">
+        <v>1</v>
+      </c>
+      <c r="E843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>14</v>
+      </c>
+      <c r="B844" t="s">
+        <v>5</v>
+      </c>
+      <c r="C844">
+        <v>336</v>
+      </c>
+      <c r="D844">
+        <v>1</v>
+      </c>
+      <c r="E844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>14</v>
+      </c>
+      <c r="B845" t="s">
+        <v>6</v>
+      </c>
+      <c r="C845">
+        <v>336</v>
+      </c>
+      <c r="D845">
+        <v>1</v>
+      </c>
+      <c r="E845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>15</v>
+      </c>
+      <c r="B846" t="s">
+        <v>5</v>
+      </c>
+      <c r="C846">
+        <v>336</v>
+      </c>
+      <c r="D846">
+        <v>4</v>
+      </c>
+      <c r="E846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>15</v>
+      </c>
+      <c r="B847" t="s">
+        <v>6</v>
+      </c>
+      <c r="C847">
+        <v>336</v>
+      </c>
+      <c r="D847">
+        <v>0</v>
+      </c>
+      <c r="E847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>16</v>
+      </c>
+      <c r="B848" t="s">
+        <v>5</v>
+      </c>
+      <c r="C848">
+        <v>336</v>
+      </c>
+      <c r="D848">
+        <v>44</v>
+      </c>
+      <c r="E848">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>16</v>
+      </c>
+      <c r="B849" t="s">
+        <v>6</v>
+      </c>
+      <c r="C849">
+        <v>336</v>
+      </c>
+      <c r="D849">
+        <v>5</v>
+      </c>
+      <c r="E849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>17</v>
+      </c>
+      <c r="B850" t="s">
+        <v>5</v>
+      </c>
+      <c r="C850">
+        <v>336</v>
+      </c>
+      <c r="D850">
+        <v>5</v>
+      </c>
+      <c r="E850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>17</v>
+      </c>
+      <c r="B851" t="s">
+        <v>6</v>
+      </c>
+      <c r="C851">
+        <v>336</v>
+      </c>
+      <c r="D851">
+        <v>5</v>
+      </c>
+      <c r="E851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>18</v>
+      </c>
+      <c r="B852" t="s">
+        <v>5</v>
+      </c>
+      <c r="C852">
+        <v>336</v>
+      </c>
+      <c r="D852">
+        <v>8</v>
+      </c>
+      <c r="E852">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>18</v>
+      </c>
+      <c r="B853" t="s">
+        <v>6</v>
+      </c>
+      <c r="C853">
+        <v>336</v>
+      </c>
+      <c r="D853">
+        <v>1</v>
+      </c>
+      <c r="E853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>19</v>
+      </c>
+      <c r="B854" t="s">
+        <v>5</v>
+      </c>
+      <c r="C854">
+        <v>336</v>
+      </c>
+      <c r="D854">
+        <v>2</v>
+      </c>
+      <c r="E854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>19</v>
+      </c>
+      <c r="B855" t="s">
+        <v>6</v>
+      </c>
+      <c r="C855">
+        <v>336</v>
+      </c>
+      <c r="D855">
+        <v>1</v>
+      </c>
+      <c r="E855">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>20</v>
+      </c>
+      <c r="B856" t="s">
+        <v>5</v>
+      </c>
+      <c r="C856">
+        <v>336</v>
+      </c>
+      <c r="D856">
+        <v>3</v>
+      </c>
+      <c r="E856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>20</v>
+      </c>
+      <c r="B857" t="s">
+        <v>6</v>
+      </c>
+      <c r="C857">
+        <v>336</v>
+      </c>
+      <c r="D857">
+        <v>2</v>
+      </c>
+      <c r="E857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>21</v>
+      </c>
+      <c r="B858" t="s">
+        <v>5</v>
+      </c>
+      <c r="C858">
+        <v>336</v>
+      </c>
+      <c r="D858">
+        <v>17</v>
+      </c>
+      <c r="E858">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>21</v>
+      </c>
+      <c r="B859" t="s">
+        <v>6</v>
+      </c>
+      <c r="C859">
+        <v>336</v>
+      </c>
+      <c r="D859">
+        <v>9</v>
+      </c>
+      <c r="E859">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>22</v>
+      </c>
+      <c r="B860" t="s">
+        <v>5</v>
+      </c>
+      <c r="C860">
+        <v>336</v>
+      </c>
+      <c r="D860">
+        <v>3</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>22</v>
+      </c>
+      <c r="B861" t="s">
+        <v>6</v>
+      </c>
+      <c r="C861">
+        <v>336</v>
+      </c>
+      <c r="D861">
+        <v>9</v>
+      </c>
+      <c r="E861">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>23</v>
+      </c>
+      <c r="B862" t="s">
+        <v>5</v>
+      </c>
+      <c r="C862">
+        <v>336</v>
+      </c>
+      <c r="D862">
+        <v>26</v>
+      </c>
+      <c r="E862">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>23</v>
+      </c>
+      <c r="B863" t="s">
+        <v>6</v>
+      </c>
+      <c r="C863">
+        <v>336</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>24</v>
+      </c>
+      <c r="B864" t="s">
+        <v>5</v>
+      </c>
+      <c r="C864">
+        <v>336</v>
+      </c>
+      <c r="D864">
+        <v>5</v>
+      </c>
+      <c r="E864">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>24</v>
+      </c>
+      <c r="B865" t="s">
+        <v>6</v>
+      </c>
+      <c r="C865">
+        <v>336</v>
+      </c>
+      <c r="D865">
+        <v>3</v>
+      </c>
+      <c r="E865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>25</v>
+      </c>
+      <c r="B866" t="s">
+        <v>5</v>
+      </c>
+      <c r="C866">
+        <v>336</v>
+      </c>
+      <c r="D866">
+        <v>24</v>
+      </c>
+      <c r="E866">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>25</v>
+      </c>
+      <c r="B867" t="s">
+        <v>6</v>
+      </c>
+      <c r="C867">
+        <v>336</v>
+      </c>
+      <c r="D867">
+        <v>14</v>
+      </c>
+      <c r="E867">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>26</v>
+      </c>
+      <c r="B868" t="s">
+        <v>5</v>
+      </c>
+      <c r="C868">
+        <v>336</v>
+      </c>
+      <c r="D868">
+        <v>17</v>
+      </c>
+      <c r="E868">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>26</v>
+      </c>
+      <c r="B869" t="s">
+        <v>6</v>
+      </c>
+      <c r="C869">
+        <v>336</v>
+      </c>
+      <c r="D869">
+        <v>4</v>
+      </c>
+      <c r="E869">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>27</v>
+      </c>
+      <c r="B870" t="s">
+        <v>5</v>
+      </c>
+      <c r="C870">
+        <v>336</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+      <c r="E870">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>27</v>
+      </c>
+      <c r="B871" t="s">
+        <v>6</v>
+      </c>
+      <c r="C871">
+        <v>336</v>
+      </c>
+      <c r="D871">
+        <v>18</v>
+      </c>
+      <c r="E871">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>28</v>
+      </c>
+      <c r="B872" t="s">
+        <v>5</v>
+      </c>
+      <c r="C872">
+        <v>336</v>
+      </c>
+      <c r="D872">
+        <v>18</v>
+      </c>
+      <c r="E872">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>28</v>
+      </c>
+      <c r="B873" t="s">
+        <v>6</v>
+      </c>
+      <c r="C873">
+        <v>336</v>
+      </c>
+      <c r="D873">
+        <v>11</v>
+      </c>
+      <c r="E873">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>29</v>
+      </c>
+      <c r="B874" t="s">
+        <v>5</v>
+      </c>
+      <c r="C874">
+        <v>336</v>
+      </c>
+      <c r="D874">
+        <v>10</v>
+      </c>
+      <c r="E874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>29</v>
+      </c>
+      <c r="B875" t="s">
+        <v>6</v>
+      </c>
+      <c r="C875">
+        <v>336</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>30</v>
+      </c>
+      <c r="B876" t="s">
+        <v>5</v>
+      </c>
+      <c r="C876">
+        <v>336</v>
+      </c>
+      <c r="D876">
+        <v>4</v>
+      </c>
+      <c r="E876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>30</v>
+      </c>
+      <c r="B877" t="s">
+        <v>6</v>
+      </c>
+      <c r="C877">
+        <v>336</v>
+      </c>
+      <c r="D877">
+        <v>7</v>
+      </c>
+      <c r="E877">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>31</v>
+      </c>
+      <c r="B878" t="s">
+        <v>5</v>
+      </c>
+      <c r="C878">
+        <v>336</v>
+      </c>
+      <c r="D878">
+        <v>5</v>
+      </c>
+      <c r="E878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>31</v>
+      </c>
+      <c r="B879" t="s">
+        <v>6</v>
+      </c>
+      <c r="C879">
+        <v>336</v>
+      </c>
+      <c r="D879">
+        <v>8</v>
+      </c>
+      <c r="E879">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>32</v>
+      </c>
+      <c r="B880" t="s">
+        <v>5</v>
+      </c>
+      <c r="C880">
+        <v>336</v>
+      </c>
+      <c r="D880">
+        <v>3</v>
+      </c>
+      <c r="E880">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>32</v>
+      </c>
+      <c r="B881" t="s">
+        <v>6</v>
+      </c>
+      <c r="C881">
+        <v>336</v>
+      </c>
+      <c r="D881">
+        <v>4</v>
+      </c>
+      <c r="E881">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>33</v>
+      </c>
+      <c r="B882" t="s">
+        <v>5</v>
+      </c>
+      <c r="C882">
+        <v>336</v>
+      </c>
+      <c r="D882">
+        <v>29</v>
+      </c>
+      <c r="E882">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>33</v>
+      </c>
+      <c r="B883" t="s">
+        <v>6</v>
+      </c>
+      <c r="C883">
+        <v>336</v>
+      </c>
+      <c r="D883">
+        <v>3</v>
+      </c>
+      <c r="E883">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>34</v>
+      </c>
+      <c r="B884" t="s">
+        <v>5</v>
+      </c>
+      <c r="C884">
+        <v>336</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>34</v>
+      </c>
+      <c r="B885" t="s">
+        <v>6</v>
+      </c>
+      <c r="C885">
+        <v>336</v>
+      </c>
+      <c r="D885">
+        <v>7</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>1</v>
+      </c>
+      <c r="B886" t="s">
+        <v>5</v>
+      </c>
+      <c r="C886">
+        <v>355</v>
+      </c>
+      <c r="D886">
+        <v>30</v>
+      </c>
+      <c r="E886">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>1</v>
+      </c>
+      <c r="B887" t="s">
+        <v>6</v>
+      </c>
+      <c r="C887">
+        <v>355</v>
+      </c>
+      <c r="D887">
+        <v>13</v>
+      </c>
+      <c r="E887">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>2</v>
+      </c>
+      <c r="B888" t="s">
+        <v>5</v>
+      </c>
+      <c r="C888">
+        <v>355</v>
+      </c>
+      <c r="D888">
+        <v>9</v>
+      </c>
+      <c r="E888">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>2</v>
+      </c>
+      <c r="B889" t="s">
+        <v>6</v>
+      </c>
+      <c r="C889">
+        <v>355</v>
+      </c>
+      <c r="D889">
+        <v>2</v>
+      </c>
+      <c r="E889">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>3</v>
+      </c>
+      <c r="B890" t="s">
+        <v>5</v>
+      </c>
+      <c r="C890">
+        <v>355</v>
+      </c>
+      <c r="D890">
+        <v>12</v>
+      </c>
+      <c r="E890">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>3</v>
+      </c>
+      <c r="B891" t="s">
+        <v>6</v>
+      </c>
+      <c r="C891">
+        <v>355</v>
+      </c>
+      <c r="D891">
+        <v>1</v>
+      </c>
+      <c r="E891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>4</v>
+      </c>
+      <c r="B892" t="s">
+        <v>5</v>
+      </c>
+      <c r="C892">
+        <v>355</v>
+      </c>
+      <c r="D892">
+        <v>22</v>
+      </c>
+      <c r="E892">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>4</v>
+      </c>
+      <c r="B893" t="s">
+        <v>6</v>
+      </c>
+      <c r="C893">
+        <v>355</v>
+      </c>
+      <c r="D893">
+        <v>0</v>
+      </c>
+      <c r="E893">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>5</v>
+      </c>
+      <c r="B894" t="s">
+        <v>5</v>
+      </c>
+      <c r="C894">
+        <v>355</v>
+      </c>
+      <c r="D894">
+        <v>2</v>
+      </c>
+      <c r="E894">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>5</v>
+      </c>
+      <c r="B895" t="s">
+        <v>6</v>
+      </c>
+      <c r="C895">
+        <v>355</v>
+      </c>
+      <c r="D895">
+        <v>2</v>
+      </c>
+      <c r="E895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>6</v>
+      </c>
+      <c r="B896" t="s">
+        <v>5</v>
+      </c>
+      <c r="C896">
+        <v>355</v>
+      </c>
+      <c r="D896">
+        <v>6</v>
+      </c>
+      <c r="E896">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>6</v>
+      </c>
+      <c r="B897" t="s">
+        <v>6</v>
+      </c>
+      <c r="C897">
+        <v>355</v>
+      </c>
+      <c r="D897">
+        <v>2</v>
+      </c>
+      <c r="E897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>7</v>
+      </c>
+      <c r="B898" t="s">
+        <v>5</v>
+      </c>
+      <c r="C898">
+        <v>355</v>
+      </c>
+      <c r="D898">
+        <v>5</v>
+      </c>
+      <c r="E898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899" t="s">
+        <v>6</v>
+      </c>
+      <c r="C899">
+        <v>355</v>
+      </c>
+      <c r="D899">
+        <v>32</v>
+      </c>
+      <c r="E899">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>8</v>
+      </c>
+      <c r="B900" t="s">
+        <v>5</v>
+      </c>
+      <c r="C900">
+        <v>355</v>
+      </c>
+      <c r="D900">
+        <v>8</v>
+      </c>
+      <c r="E900">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>8</v>
+      </c>
+      <c r="B901" t="s">
+        <v>6</v>
+      </c>
+      <c r="C901">
+        <v>355</v>
+      </c>
+      <c r="D901">
+        <v>28</v>
+      </c>
+      <c r="E901">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>9</v>
+      </c>
+      <c r="B902" t="s">
+        <v>5</v>
+      </c>
+      <c r="C902">
+        <v>355</v>
+      </c>
+      <c r="D902">
+        <v>9</v>
+      </c>
+      <c r="E902">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>9</v>
+      </c>
+      <c r="B903" t="s">
+        <v>6</v>
+      </c>
+      <c r="C903">
+        <v>355</v>
+      </c>
+      <c r="D903">
+        <v>5</v>
+      </c>
+      <c r="E903">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>10</v>
+      </c>
+      <c r="B904" t="s">
+        <v>5</v>
+      </c>
+      <c r="C904">
+        <v>355</v>
+      </c>
+      <c r="D904">
+        <v>20</v>
+      </c>
+      <c r="E904">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>10</v>
+      </c>
+      <c r="B905" t="s">
+        <v>6</v>
+      </c>
+      <c r="C905">
+        <v>355</v>
+      </c>
+      <c r="D905">
+        <v>0</v>
+      </c>
+      <c r="E905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>11</v>
+      </c>
+      <c r="B906" t="s">
+        <v>5</v>
+      </c>
+      <c r="C906">
+        <v>355</v>
+      </c>
+      <c r="D906">
+        <v>6</v>
+      </c>
+      <c r="E906">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>11</v>
+      </c>
+      <c r="B907" t="s">
+        <v>6</v>
+      </c>
+      <c r="C907">
+        <v>355</v>
+      </c>
+      <c r="D907">
+        <v>2</v>
+      </c>
+      <c r="E907">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>12</v>
+      </c>
+      <c r="B908" t="s">
+        <v>5</v>
+      </c>
+      <c r="C908">
+        <v>355</v>
+      </c>
+      <c r="D908">
+        <v>8</v>
+      </c>
+      <c r="E908">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>12</v>
+      </c>
+      <c r="B909" t="s">
+        <v>6</v>
+      </c>
+      <c r="C909">
+        <v>355</v>
+      </c>
+      <c r="D909">
+        <v>0</v>
+      </c>
+      <c r="E909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>13</v>
+      </c>
+      <c r="B910" t="s">
+        <v>5</v>
+      </c>
+      <c r="C910">
+        <v>355</v>
+      </c>
+      <c r="D910">
+        <v>4</v>
+      </c>
+      <c r="E910">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>13</v>
+      </c>
+      <c r="B911" t="s">
+        <v>6</v>
+      </c>
+      <c r="C911">
+        <v>355</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>14</v>
+      </c>
+      <c r="B912" t="s">
+        <v>5</v>
+      </c>
+      <c r="C912">
+        <v>355</v>
+      </c>
+      <c r="D912">
+        <v>2</v>
+      </c>
+      <c r="E912">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>14</v>
+      </c>
+      <c r="B913" t="s">
+        <v>6</v>
+      </c>
+      <c r="C913">
+        <v>355</v>
+      </c>
+      <c r="D913">
+        <v>0</v>
+      </c>
+      <c r="E913">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>15</v>
+      </c>
+      <c r="B914" t="s">
+        <v>5</v>
+      </c>
+      <c r="C914">
+        <v>355</v>
+      </c>
+      <c r="D914">
+        <v>1</v>
+      </c>
+      <c r="E914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>15</v>
+      </c>
+      <c r="B915" t="s">
+        <v>6</v>
+      </c>
+      <c r="C915">
+        <v>355</v>
+      </c>
+      <c r="D915">
+        <v>1</v>
+      </c>
+      <c r="E915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>16</v>
+      </c>
+      <c r="B916" t="s">
+        <v>5</v>
+      </c>
+      <c r="C916">
+        <v>355</v>
+      </c>
+      <c r="D916">
+        <v>35</v>
+      </c>
+      <c r="E916">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>16</v>
+      </c>
+      <c r="B917" t="s">
+        <v>6</v>
+      </c>
+      <c r="C917">
+        <v>355</v>
+      </c>
+      <c r="D917">
+        <v>3</v>
+      </c>
+      <c r="E917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>17</v>
+      </c>
+      <c r="B918" t="s">
+        <v>5</v>
+      </c>
+      <c r="C918">
+        <v>355</v>
+      </c>
+      <c r="D918">
+        <v>15</v>
+      </c>
+      <c r="E918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>17</v>
+      </c>
+      <c r="B919" t="s">
+        <v>6</v>
+      </c>
+      <c r="C919">
+        <v>355</v>
+      </c>
+      <c r="D919">
+        <v>0</v>
+      </c>
+      <c r="E919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>18</v>
+      </c>
+      <c r="B920" t="s">
+        <v>5</v>
+      </c>
+      <c r="C920">
+        <v>355</v>
+      </c>
+      <c r="D920">
+        <v>12</v>
+      </c>
+      <c r="E920">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>18</v>
+      </c>
+      <c r="B921" t="s">
+        <v>6</v>
+      </c>
+      <c r="C921">
+        <v>355</v>
+      </c>
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="E921">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>19</v>
+      </c>
+      <c r="B922" t="s">
+        <v>5</v>
+      </c>
+      <c r="C922">
+        <v>355</v>
+      </c>
+      <c r="D922">
+        <v>2</v>
+      </c>
+      <c r="E922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>19</v>
+      </c>
+      <c r="B923" t="s">
+        <v>6</v>
+      </c>
+      <c r="C923">
+        <v>355</v>
+      </c>
+      <c r="D923">
+        <v>2</v>
+      </c>
+      <c r="E923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>20</v>
+      </c>
+      <c r="B924" t="s">
+        <v>5</v>
+      </c>
+      <c r="C924">
+        <v>355</v>
+      </c>
+      <c r="D924">
+        <v>11</v>
+      </c>
+      <c r="E924">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>20</v>
+      </c>
+      <c r="B925" t="s">
+        <v>6</v>
+      </c>
+      <c r="C925">
+        <v>355</v>
+      </c>
+      <c r="D925">
+        <v>2</v>
+      </c>
+      <c r="E925">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>21</v>
+      </c>
+      <c r="B926" t="s">
+        <v>5</v>
+      </c>
+      <c r="C926">
+        <v>355</v>
+      </c>
+      <c r="D926">
+        <v>25</v>
+      </c>
+      <c r="E926">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>21</v>
+      </c>
+      <c r="B927" t="s">
+        <v>6</v>
+      </c>
+      <c r="C927">
+        <v>355</v>
+      </c>
+      <c r="D927">
+        <v>12</v>
+      </c>
+      <c r="E927">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>22</v>
+      </c>
+      <c r="B928" t="s">
+        <v>5</v>
+      </c>
+      <c r="C928">
+        <v>355</v>
+      </c>
+      <c r="D928">
+        <v>2</v>
+      </c>
+      <c r="E928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>22</v>
+      </c>
+      <c r="B929" t="s">
+        <v>6</v>
+      </c>
+      <c r="C929">
+        <v>355</v>
+      </c>
+      <c r="D929">
+        <v>4</v>
+      </c>
+      <c r="E929">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>23</v>
+      </c>
+      <c r="B930" t="s">
+        <v>5</v>
+      </c>
+      <c r="C930">
+        <v>355</v>
+      </c>
+      <c r="D930">
+        <v>26</v>
+      </c>
+      <c r="E930">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>23</v>
+      </c>
+      <c r="B931" t="s">
+        <v>6</v>
+      </c>
+      <c r="C931">
+        <v>355</v>
+      </c>
+      <c r="D931">
+        <v>2</v>
+      </c>
+      <c r="E931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>24</v>
+      </c>
+      <c r="B932" t="s">
+        <v>5</v>
+      </c>
+      <c r="C932">
+        <v>355</v>
+      </c>
+      <c r="D932">
+        <v>12</v>
+      </c>
+      <c r="E932">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>24</v>
+      </c>
+      <c r="B933" t="s">
+        <v>6</v>
+      </c>
+      <c r="C933">
+        <v>355</v>
+      </c>
+      <c r="D933">
+        <v>6</v>
+      </c>
+      <c r="E933">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>25</v>
+      </c>
+      <c r="B934" t="s">
+        <v>5</v>
+      </c>
+      <c r="C934">
+        <v>355</v>
+      </c>
+      <c r="D934">
+        <v>18</v>
+      </c>
+      <c r="E934">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>25</v>
+      </c>
+      <c r="B935" t="s">
+        <v>6</v>
+      </c>
+      <c r="C935">
+        <v>355</v>
+      </c>
+      <c r="D935">
+        <v>9</v>
+      </c>
+      <c r="E935">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>26</v>
+      </c>
+      <c r="B936" t="s">
+        <v>5</v>
+      </c>
+      <c r="C936">
+        <v>355</v>
+      </c>
+      <c r="D936">
+        <v>19</v>
+      </c>
+      <c r="E936">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>26</v>
+      </c>
+      <c r="B937" t="s">
+        <v>6</v>
+      </c>
+      <c r="C937">
+        <v>355</v>
+      </c>
+      <c r="D937">
+        <v>10</v>
+      </c>
+      <c r="E937">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>27</v>
+      </c>
+      <c r="B938" t="s">
+        <v>5</v>
+      </c>
+      <c r="C938">
+        <v>355</v>
+      </c>
+      <c r="D938">
+        <v>3</v>
+      </c>
+      <c r="E938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>27</v>
+      </c>
+      <c r="B939" t="s">
+        <v>6</v>
+      </c>
+      <c r="C939">
+        <v>355</v>
+      </c>
+      <c r="D939">
+        <v>9</v>
+      </c>
+      <c r="E939">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>28</v>
+      </c>
+      <c r="B940" t="s">
+        <v>5</v>
+      </c>
+      <c r="C940">
+        <v>355</v>
+      </c>
+      <c r="D940">
+        <v>15</v>
+      </c>
+      <c r="E940">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>28</v>
+      </c>
+      <c r="B941" t="s">
+        <v>6</v>
+      </c>
+      <c r="C941">
+        <v>355</v>
+      </c>
+      <c r="D941">
+        <v>12</v>
+      </c>
+      <c r="E941">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>29</v>
+      </c>
+      <c r="B942" t="s">
+        <v>5</v>
+      </c>
+      <c r="C942">
+        <v>355</v>
+      </c>
+      <c r="D942">
+        <v>9</v>
+      </c>
+      <c r="E942">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>29</v>
+      </c>
+      <c r="B943" t="s">
+        <v>6</v>
+      </c>
+      <c r="C943">
+        <v>355</v>
+      </c>
+      <c r="D943">
+        <v>2</v>
+      </c>
+      <c r="E943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>30</v>
+      </c>
+      <c r="B944" t="s">
+        <v>5</v>
+      </c>
+      <c r="C944">
+        <v>355</v>
+      </c>
+      <c r="D944">
+        <v>15</v>
+      </c>
+      <c r="E944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>30</v>
+      </c>
+      <c r="B945" t="s">
+        <v>6</v>
+      </c>
+      <c r="C945">
+        <v>355</v>
+      </c>
+      <c r="D945">
+        <v>8</v>
+      </c>
+      <c r="E945">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>31</v>
+      </c>
+      <c r="B946" t="s">
+        <v>5</v>
+      </c>
+      <c r="C946">
+        <v>355</v>
+      </c>
+      <c r="D946">
+        <v>5</v>
+      </c>
+      <c r="E946">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>31</v>
+      </c>
+      <c r="B947" t="s">
+        <v>6</v>
+      </c>
+      <c r="C947">
+        <v>355</v>
+      </c>
+      <c r="D947">
+        <v>11</v>
+      </c>
+      <c r="E947">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>32</v>
+      </c>
+      <c r="B948" t="s">
+        <v>5</v>
+      </c>
+      <c r="C948">
+        <v>355</v>
+      </c>
+      <c r="D948">
+        <v>0</v>
+      </c>
+      <c r="E948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>32</v>
+      </c>
+      <c r="B949" t="s">
+        <v>6</v>
+      </c>
+      <c r="C949">
+        <v>355</v>
+      </c>
+      <c r="D949">
+        <v>7</v>
+      </c>
+      <c r="E949">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>33</v>
+      </c>
+      <c r="B950" t="s">
+        <v>5</v>
+      </c>
+      <c r="C950">
+        <v>355</v>
+      </c>
+      <c r="D950">
+        <v>17</v>
+      </c>
+      <c r="E950">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>33</v>
+      </c>
+      <c r="B951" t="s">
+        <v>6</v>
+      </c>
+      <c r="C951">
+        <v>355</v>
+      </c>
+      <c r="D951">
+        <v>11</v>
+      </c>
+      <c r="E951">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>34</v>
+      </c>
+      <c r="B952" t="s">
+        <v>5</v>
+      </c>
+      <c r="C952">
+        <v>355</v>
+      </c>
+      <c r="D952">
+        <v>0</v>
+      </c>
+      <c r="E952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>34</v>
+      </c>
+      <c r="B953" t="s">
+        <v>6</v>
+      </c>
+      <c r="C953">
+        <v>355</v>
+      </c>
+      <c r="D953">
+        <v>5</v>
+      </c>
+      <c r="E953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>1</v>
+      </c>
+      <c r="B954" t="s">
+        <v>5</v>
+      </c>
+      <c r="C954">
+        <v>364</v>
+      </c>
+      <c r="D954">
+        <v>39</v>
+      </c>
+      <c r="E954">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>1</v>
+      </c>
+      <c r="B955" t="s">
+        <v>6</v>
+      </c>
+      <c r="C955">
+        <v>364</v>
+      </c>
+      <c r="D955">
+        <v>12</v>
+      </c>
+      <c r="E955">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>2</v>
+      </c>
+      <c r="B956" t="s">
+        <v>5</v>
+      </c>
+      <c r="C956">
+        <v>364</v>
+      </c>
+      <c r="D956">
+        <v>2</v>
+      </c>
+      <c r="E956">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>2</v>
+      </c>
+      <c r="B957" t="s">
+        <v>6</v>
+      </c>
+      <c r="C957">
+        <v>364</v>
+      </c>
+      <c r="D957">
+        <v>0</v>
+      </c>
+      <c r="E957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>3</v>
+      </c>
+      <c r="B958" t="s">
+        <v>5</v>
+      </c>
+      <c r="C958">
+        <v>364</v>
+      </c>
+      <c r="D958">
+        <v>15</v>
+      </c>
+      <c r="E958">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>3</v>
+      </c>
+      <c r="B959" t="s">
+        <v>6</v>
+      </c>
+      <c r="C959">
+        <v>364</v>
+      </c>
+      <c r="D959">
+        <v>0</v>
+      </c>
+      <c r="E959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>4</v>
+      </c>
+      <c r="B960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C960">
+        <v>364</v>
+      </c>
+      <c r="D960">
+        <v>35</v>
+      </c>
+      <c r="E960">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>4</v>
+      </c>
+      <c r="B961" t="s">
+        <v>6</v>
+      </c>
+      <c r="C961">
+        <v>364</v>
+      </c>
+      <c r="D961">
+        <v>1</v>
+      </c>
+      <c r="E961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>5</v>
+      </c>
+      <c r="B962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C962">
+        <v>364</v>
+      </c>
+      <c r="D962">
+        <v>6</v>
+      </c>
+      <c r="E962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>5</v>
+      </c>
+      <c r="B963" t="s">
+        <v>6</v>
+      </c>
+      <c r="C963">
+        <v>364</v>
+      </c>
+      <c r="D963">
+        <v>11</v>
+      </c>
+      <c r="E963">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>6</v>
+      </c>
+      <c r="B964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C964">
+        <v>364</v>
+      </c>
+      <c r="D964">
+        <v>4</v>
+      </c>
+      <c r="E964">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>6</v>
+      </c>
+      <c r="B965" t="s">
+        <v>6</v>
+      </c>
+      <c r="C965">
+        <v>364</v>
+      </c>
+      <c r="D965">
+        <v>1</v>
+      </c>
+      <c r="E965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>7</v>
+      </c>
+      <c r="B966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C966">
+        <v>364</v>
+      </c>
+      <c r="D966">
+        <v>4</v>
+      </c>
+      <c r="E966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>7</v>
+      </c>
+      <c r="B967" t="s">
+        <v>6</v>
+      </c>
+      <c r="C967">
+        <v>364</v>
+      </c>
+      <c r="D967">
+        <v>32</v>
+      </c>
+      <c r="E967">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>8</v>
+      </c>
+      <c r="B968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C968">
+        <v>364</v>
+      </c>
+      <c r="D968">
+        <v>15</v>
+      </c>
+      <c r="E968">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>8</v>
+      </c>
+      <c r="B969" t="s">
+        <v>6</v>
+      </c>
+      <c r="C969">
+        <v>364</v>
+      </c>
+      <c r="D969">
+        <v>5</v>
+      </c>
+      <c r="E969">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>9</v>
+      </c>
+      <c r="B970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C970">
+        <v>364</v>
+      </c>
+      <c r="D970">
+        <v>10</v>
+      </c>
+      <c r="E970">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>9</v>
+      </c>
+      <c r="B971" t="s">
+        <v>6</v>
+      </c>
+      <c r="C971">
+        <v>364</v>
+      </c>
+      <c r="D971">
+        <v>12</v>
+      </c>
+      <c r="E971">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>10</v>
+      </c>
+      <c r="B972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C972">
+        <v>364</v>
+      </c>
+      <c r="D972">
+        <v>22</v>
+      </c>
+      <c r="E972">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>10</v>
+      </c>
+      <c r="B973" t="s">
+        <v>6</v>
+      </c>
+      <c r="C973">
+        <v>364</v>
+      </c>
+      <c r="D973">
+        <v>0</v>
+      </c>
+      <c r="E973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>11</v>
+      </c>
+      <c r="B974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C974">
+        <v>364</v>
+      </c>
+      <c r="D974">
+        <v>51</v>
+      </c>
+      <c r="E974">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>11</v>
+      </c>
+      <c r="B975" t="s">
+        <v>6</v>
+      </c>
+      <c r="C975">
+        <v>364</v>
+      </c>
+      <c r="D975">
+        <v>5</v>
+      </c>
+      <c r="E975">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>12</v>
+      </c>
+      <c r="B976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C976">
+        <v>364</v>
+      </c>
+      <c r="D976">
+        <v>33</v>
+      </c>
+      <c r="E976">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>12</v>
+      </c>
+      <c r="B977" t="s">
+        <v>6</v>
+      </c>
+      <c r="C977">
+        <v>364</v>
+      </c>
+      <c r="D977">
+        <v>0</v>
+      </c>
+      <c r="E977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>13</v>
+      </c>
+      <c r="B978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C978">
+        <v>364</v>
+      </c>
+      <c r="D978">
+        <v>4</v>
+      </c>
+      <c r="E978">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>13</v>
+      </c>
+      <c r="B979" t="s">
+        <v>6</v>
+      </c>
+      <c r="C979">
+        <v>364</v>
+      </c>
+      <c r="D979">
+        <v>0</v>
+      </c>
+      <c r="E979">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>14</v>
+      </c>
+      <c r="B980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C980">
+        <v>364</v>
+      </c>
+      <c r="D980">
+        <v>2</v>
+      </c>
+      <c r="E980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>14</v>
+      </c>
+      <c r="B981" t="s">
+        <v>6</v>
+      </c>
+      <c r="C981">
+        <v>364</v>
+      </c>
+      <c r="D981">
+        <v>2</v>
+      </c>
+      <c r="E981">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>15</v>
+      </c>
+      <c r="B982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C982">
+        <v>364</v>
+      </c>
+      <c r="D982">
+        <v>6</v>
+      </c>
+      <c r="E982">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>15</v>
+      </c>
+      <c r="B983" t="s">
+        <v>6</v>
+      </c>
+      <c r="C983">
+        <v>364</v>
+      </c>
+      <c r="D983">
+        <v>3</v>
+      </c>
+      <c r="E983">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>16</v>
+      </c>
+      <c r="B984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C984">
+        <v>364</v>
+      </c>
+      <c r="D984">
+        <v>31</v>
+      </c>
+      <c r="E984">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>16</v>
+      </c>
+      <c r="B985" t="s">
+        <v>6</v>
+      </c>
+      <c r="C985">
+        <v>364</v>
+      </c>
+      <c r="D985">
+        <v>6</v>
+      </c>
+      <c r="E985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>17</v>
+      </c>
+      <c r="B986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C986">
+        <v>364</v>
+      </c>
+      <c r="D986">
+        <v>4</v>
+      </c>
+      <c r="E986">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>17</v>
+      </c>
+      <c r="B987" t="s">
+        <v>6</v>
+      </c>
+      <c r="C987">
+        <v>364</v>
+      </c>
+      <c r="D987">
+        <v>1</v>
+      </c>
+      <c r="E987">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>18</v>
+      </c>
+      <c r="B988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C988">
+        <v>364</v>
+      </c>
+      <c r="D988">
+        <v>11</v>
+      </c>
+      <c r="E988">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>18</v>
+      </c>
+      <c r="B989" t="s">
+        <v>6</v>
+      </c>
+      <c r="C989">
+        <v>364</v>
+      </c>
+      <c r="D989">
+        <v>2</v>
+      </c>
+      <c r="E989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>19</v>
+      </c>
+      <c r="B990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C990">
+        <v>364</v>
+      </c>
+      <c r="D990">
+        <v>0</v>
+      </c>
+      <c r="E990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>19</v>
+      </c>
+      <c r="B991" t="s">
+        <v>6</v>
+      </c>
+      <c r="C991">
+        <v>364</v>
+      </c>
+      <c r="D991">
+        <v>1</v>
+      </c>
+      <c r="E991">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>20</v>
+      </c>
+      <c r="B992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C992">
+        <v>364</v>
+      </c>
+      <c r="D992">
+        <v>7</v>
+      </c>
+      <c r="E992">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>20</v>
+      </c>
+      <c r="B993" t="s">
+        <v>6</v>
+      </c>
+      <c r="C993">
+        <v>364</v>
+      </c>
+      <c r="D993">
+        <v>2</v>
+      </c>
+      <c r="E993">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>21</v>
+      </c>
+      <c r="B994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C994">
+        <v>364</v>
+      </c>
+      <c r="D994">
+        <v>13</v>
+      </c>
+      <c r="E994">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>21</v>
+      </c>
+      <c r="B995" t="s">
+        <v>6</v>
+      </c>
+      <c r="C995">
+        <v>364</v>
+      </c>
+      <c r="D995">
+        <v>7</v>
+      </c>
+      <c r="E995">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>22</v>
+      </c>
+      <c r="B996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C996">
+        <v>364</v>
+      </c>
+      <c r="D996">
+        <v>3</v>
+      </c>
+      <c r="E996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>22</v>
+      </c>
+      <c r="B997" t="s">
+        <v>6</v>
+      </c>
+      <c r="C997">
+        <v>364</v>
+      </c>
+      <c r="D997">
+        <v>13</v>
+      </c>
+      <c r="E997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>23</v>
+      </c>
+      <c r="B998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C998">
+        <v>364</v>
+      </c>
+      <c r="D998">
+        <v>31</v>
+      </c>
+      <c r="E998">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>23</v>
+      </c>
+      <c r="B999" t="s">
+        <v>6</v>
+      </c>
+      <c r="C999">
+        <v>364</v>
+      </c>
+      <c r="D999">
+        <v>1</v>
+      </c>
+      <c r="E999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>24</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1000">
+        <v>364</v>
+      </c>
+      <c r="D1000">
+        <v>17</v>
+      </c>
+      <c r="E1000">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>24</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1001">
+        <v>364</v>
+      </c>
+      <c r="D1001">
+        <v>5</v>
+      </c>
+      <c r="E1001">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>25</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1002">
+        <v>364</v>
+      </c>
+      <c r="D1002">
+        <v>28</v>
+      </c>
+      <c r="E1002">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>25</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1003">
+        <v>364</v>
+      </c>
+      <c r="D1003">
+        <v>6</v>
+      </c>
+      <c r="E1003">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>26</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1004">
+        <v>364</v>
+      </c>
+      <c r="D1004">
+        <v>19</v>
+      </c>
+      <c r="E1004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>26</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1005">
+        <v>364</v>
+      </c>
+      <c r="D1005">
+        <v>6</v>
+      </c>
+      <c r="E1005">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>27</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1006">
+        <v>364</v>
+      </c>
+      <c r="D1006">
+        <v>8</v>
+      </c>
+      <c r="E1006">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>27</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1007">
+        <v>364</v>
+      </c>
+      <c r="D1007">
+        <v>17</v>
+      </c>
+      <c r="E1007">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>28</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1008">
+        <v>364</v>
+      </c>
+      <c r="D1008">
+        <v>23</v>
+      </c>
+      <c r="E1008">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>28</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1009">
+        <v>364</v>
+      </c>
+      <c r="D1009">
+        <v>11</v>
+      </c>
+      <c r="E1009">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>29</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1010">
+        <v>364</v>
+      </c>
+      <c r="D1010">
+        <v>8</v>
+      </c>
+      <c r="E1010">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>29</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1011">
+        <v>364</v>
+      </c>
+      <c r="D1011">
+        <v>2</v>
+      </c>
+      <c r="E1011">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>30</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1012">
+        <v>364</v>
+      </c>
+      <c r="D1012">
+        <v>20</v>
+      </c>
+      <c r="E1012">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>30</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1013">
+        <v>364</v>
+      </c>
+      <c r="D1013">
+        <v>3</v>
+      </c>
+      <c r="E1013">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>31</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1014">
+        <v>364</v>
+      </c>
+      <c r="D1014">
+        <v>11</v>
+      </c>
+      <c r="E1014">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>31</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1015">
+        <v>364</v>
+      </c>
+      <c r="D1015">
+        <v>15</v>
+      </c>
+      <c r="E1015">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>32</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1016">
+        <v>364</v>
+      </c>
+      <c r="D1016">
+        <v>1</v>
+      </c>
+      <c r="E1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>32</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1017">
+        <v>364</v>
+      </c>
+      <c r="D1017">
+        <v>8</v>
+      </c>
+      <c r="E1017">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>33</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1018">
+        <v>364</v>
+      </c>
+      <c r="D1018">
+        <v>39</v>
+      </c>
+      <c r="E1018">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>33</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1019">
+        <v>364</v>
+      </c>
+      <c r="D1019">
+        <v>23</v>
+      </c>
+      <c r="E1019">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>34</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1020">
+        <v>364</v>
+      </c>
+      <c r="D1020">
+        <v>1</v>
+      </c>
+      <c r="E1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>34</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1021">
+        <v>364</v>
+      </c>
+      <c r="D1021">
+        <v>3</v>
+      </c>
+      <c r="E1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>1</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1022">
+        <v>379</v>
+      </c>
+      <c r="D1022">
+        <v>6</v>
+      </c>
+      <c r="E1022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>1</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1023">
+        <v>379</v>
+      </c>
+      <c r="D1023">
+        <v>20</v>
+      </c>
+      <c r="E1023">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>2</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1024">
+        <v>379</v>
+      </c>
+      <c r="D1024">
+        <v>4</v>
+      </c>
+      <c r="E1024">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>2</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1025">
+        <v>379</v>
+      </c>
+      <c r="D1025">
+        <v>3</v>
+      </c>
+      <c r="E1025">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>3</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1026">
+        <v>379</v>
+      </c>
+      <c r="D1026">
+        <v>5</v>
+      </c>
+      <c r="E1026">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>3</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1027">
+        <v>379</v>
+      </c>
+      <c r="D1027">
+        <v>0</v>
+      </c>
+      <c r="E1027">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>4</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1028">
+        <v>379</v>
+      </c>
+      <c r="D1028">
+        <v>6</v>
+      </c>
+      <c r="E1028">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>4</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1029">
+        <v>379</v>
+      </c>
+      <c r="D1029">
+        <v>1</v>
+      </c>
+      <c r="E1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>5</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1030">
+        <v>379</v>
+      </c>
+      <c r="D1030">
+        <v>3</v>
+      </c>
+      <c r="E1030">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>5</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1031">
+        <v>379</v>
+      </c>
+      <c r="D1031">
+        <v>5</v>
+      </c>
+      <c r="E1031">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>6</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1032">
+        <v>379</v>
+      </c>
+      <c r="D1032">
+        <v>4</v>
+      </c>
+      <c r="E1032">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>6</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1033">
+        <v>379</v>
+      </c>
+      <c r="D1033">
+        <v>6</v>
+      </c>
+      <c r="E1033">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>7</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1034">
+        <v>379</v>
+      </c>
+      <c r="D1034">
+        <v>0</v>
+      </c>
+      <c r="E1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>7</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1035">
+        <v>379</v>
+      </c>
+      <c r="D1035">
+        <v>20</v>
+      </c>
+      <c r="E1035">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>8</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1036">
+        <v>379</v>
+      </c>
+      <c r="D1036">
+        <v>7</v>
+      </c>
+      <c r="E1036">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>8</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1037">
+        <v>379</v>
+      </c>
+      <c r="D1037">
+        <v>4</v>
+      </c>
+      <c r="E1037">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>9</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1038">
+        <v>379</v>
+      </c>
+      <c r="D1038">
+        <v>12</v>
+      </c>
+      <c r="E1038">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>9</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1039">
+        <v>379</v>
+      </c>
+      <c r="D1039">
+        <v>3</v>
+      </c>
+      <c r="E1039">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>10</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1040">
+        <v>379</v>
+      </c>
+      <c r="D1040">
+        <v>11</v>
+      </c>
+      <c r="E1040">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>10</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1041">
+        <v>379</v>
+      </c>
+      <c r="D1041">
+        <v>3</v>
+      </c>
+      <c r="E1041">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>11</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1042">
+        <v>379</v>
+      </c>
+      <c r="D1042">
+        <v>24</v>
+      </c>
+      <c r="E1042">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>11</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1043">
+        <v>379</v>
+      </c>
+      <c r="D1043">
+        <v>5</v>
+      </c>
+      <c r="E1043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>12</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1044">
+        <v>379</v>
+      </c>
+      <c r="D1044">
+        <v>14</v>
+      </c>
+      <c r="E1044">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>12</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1045">
+        <v>379</v>
+      </c>
+      <c r="D1045">
+        <v>0</v>
+      </c>
+      <c r="E1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>13</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1046">
+        <v>379</v>
+      </c>
+      <c r="D1046">
+        <v>2</v>
+      </c>
+      <c r="E1046">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>13</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1047">
+        <v>379</v>
+      </c>
+      <c r="D1047">
+        <v>1</v>
+      </c>
+      <c r="E1047">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>14</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1048">
+        <v>379</v>
+      </c>
+      <c r="D1048">
+        <v>2</v>
+      </c>
+      <c r="E1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>14</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1049">
+        <v>379</v>
+      </c>
+      <c r="D1049">
+        <v>1</v>
+      </c>
+      <c r="E1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>15</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1050">
+        <v>379</v>
+      </c>
+      <c r="D1050">
+        <v>5</v>
+      </c>
+      <c r="E1050">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>15</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1051">
+        <v>379</v>
+      </c>
+      <c r="D1051">
+        <v>5</v>
+      </c>
+      <c r="E1051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>16</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1052">
+        <v>379</v>
+      </c>
+      <c r="D1052">
+        <v>12</v>
+      </c>
+      <c r="E1052">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>16</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1053">
+        <v>379</v>
+      </c>
+      <c r="D1053">
+        <v>4</v>
+      </c>
+      <c r="E1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>17</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1054">
+        <v>379</v>
+      </c>
+      <c r="D1054">
+        <v>11</v>
+      </c>
+      <c r="E1054">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>17</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1055">
+        <v>379</v>
+      </c>
+      <c r="D1055">
+        <v>1</v>
+      </c>
+      <c r="E1055">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>18</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1056">
+        <v>379</v>
+      </c>
+      <c r="D1056">
+        <v>5</v>
+      </c>
+      <c r="E1056">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>18</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1057">
+        <v>379</v>
+      </c>
+      <c r="D1057">
+        <v>0</v>
+      </c>
+      <c r="E1057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>19</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1058">
+        <v>379</v>
+      </c>
+      <c r="D1058">
+        <v>14</v>
+      </c>
+      <c r="E1058">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>19</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1059">
+        <v>379</v>
+      </c>
+      <c r="D1059">
+        <v>1</v>
+      </c>
+      <c r="E1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>20</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1060">
+        <v>379</v>
+      </c>
+      <c r="D1060">
+        <v>8</v>
+      </c>
+      <c r="E1060">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>20</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1061">
+        <v>379</v>
+      </c>
+      <c r="D1061">
+        <v>6</v>
+      </c>
+      <c r="E1061">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>21</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1062">
+        <v>379</v>
+      </c>
+      <c r="D1062">
+        <v>2</v>
+      </c>
+      <c r="E1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>21</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1063">
+        <v>379</v>
+      </c>
+      <c r="D1063">
+        <v>8</v>
+      </c>
+      <c r="E1063">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>22</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1064">
+        <v>379</v>
+      </c>
+      <c r="D1064">
+        <v>11</v>
+      </c>
+      <c r="E1064">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>22</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1065">
+        <v>379</v>
+      </c>
+      <c r="D1065">
+        <v>10</v>
+      </c>
+      <c r="E1065">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>23</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1066">
+        <v>379</v>
+      </c>
+      <c r="D1066">
+        <v>12</v>
+      </c>
+      <c r="E1066">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>23</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1067">
+        <v>379</v>
+      </c>
+      <c r="D1067">
+        <v>1</v>
+      </c>
+      <c r="E1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>24</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1068">
+        <v>379</v>
+      </c>
+      <c r="D1068">
+        <v>16</v>
+      </c>
+      <c r="E1068">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>24</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1069">
+        <v>379</v>
+      </c>
+      <c r="D1069">
+        <v>4</v>
+      </c>
+      <c r="E1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>25</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1070">
+        <v>379</v>
+      </c>
+      <c r="D1070">
+        <v>4</v>
+      </c>
+      <c r="E1070">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>25</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1071">
+        <v>379</v>
+      </c>
+      <c r="D1071">
+        <v>8</v>
+      </c>
+      <c r="E1071">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>26</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1072">
+        <v>379</v>
+      </c>
+      <c r="D1072">
+        <v>3</v>
+      </c>
+      <c r="E1072">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>26</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1073">
+        <v>379</v>
+      </c>
+      <c r="D1073">
+        <v>6</v>
+      </c>
+      <c r="E1073">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>27</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1074">
+        <v>379</v>
+      </c>
+      <c r="D1074">
+        <v>2</v>
+      </c>
+      <c r="E1074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>27</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1075">
+        <v>379</v>
+      </c>
+      <c r="D1075">
+        <v>10</v>
+      </c>
+      <c r="E1075">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>28</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1076">
+        <v>379</v>
+      </c>
+      <c r="D1076">
+        <v>8</v>
+      </c>
+      <c r="E1076">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>28</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1077">
+        <v>379</v>
+      </c>
+      <c r="D1077">
+        <v>15</v>
+      </c>
+      <c r="E1077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>29</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1078">
+        <v>379</v>
+      </c>
+      <c r="D1078">
+        <v>5</v>
+      </c>
+      <c r="E1078">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>29</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1079">
+        <v>379</v>
+      </c>
+      <c r="D1079">
+        <v>3</v>
+      </c>
+      <c r="E1079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>30</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1080">
+        <v>379</v>
+      </c>
+      <c r="D1080">
+        <v>14</v>
+      </c>
+      <c r="E1080">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>30</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1081">
+        <v>379</v>
+      </c>
+      <c r="D1081">
+        <v>5</v>
+      </c>
+      <c r="E1081">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>31</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1082">
+        <v>379</v>
+      </c>
+      <c r="D1082">
+        <v>5</v>
+      </c>
+      <c r="E1082">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>31</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1083">
+        <v>379</v>
+      </c>
+      <c r="D1083">
+        <v>21</v>
+      </c>
+      <c r="E1083">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>32</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1084">
+        <v>379</v>
+      </c>
+      <c r="D1084">
+        <v>1</v>
+      </c>
+      <c r="E1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>32</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1085">
+        <v>379</v>
+      </c>
+      <c r="D1085">
+        <v>13</v>
+      </c>
+      <c r="E1085">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>33</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1086">
+        <v>379</v>
+      </c>
+      <c r="D1086">
+        <v>14</v>
+      </c>
+      <c r="E1086">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>33</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1087">
+        <v>379</v>
+      </c>
+      <c r="D1087">
+        <v>18</v>
+      </c>
+      <c r="E1087">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>34</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1088">
+        <v>379</v>
+      </c>
+      <c r="D1088">
+        <v>3</v>
+      </c>
+      <c r="E1088">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>34</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1089">
+        <v>379</v>
+      </c>
+      <c r="D1089">
+        <v>0</v>
+      </c>
+      <c r="E1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>1</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1090">
+        <v>387</v>
+      </c>
+      <c r="D1090">
+        <v>12</v>
+      </c>
+      <c r="E1090">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>1</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1091">
+        <v>387</v>
+      </c>
+      <c r="D1091">
+        <v>23</v>
+      </c>
+      <c r="E1091">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>2</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1092">
+        <v>387</v>
+      </c>
+      <c r="D1092">
+        <v>3</v>
+      </c>
+      <c r="E1092">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>2</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1093">
+        <v>387</v>
+      </c>
+      <c r="D1093">
+        <v>6</v>
+      </c>
+      <c r="E1093">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>3</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1094">
+        <v>387</v>
+      </c>
+      <c r="D1094">
+        <v>10</v>
+      </c>
+      <c r="E1094">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>3</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1095">
+        <v>387</v>
+      </c>
+      <c r="D1095">
+        <v>0</v>
+      </c>
+      <c r="E1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>4</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1096">
+        <v>387</v>
+      </c>
+      <c r="D1096">
+        <v>11</v>
+      </c>
+      <c r="E1096">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>4</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1097">
+        <v>387</v>
+      </c>
+      <c r="D1097">
+        <v>1</v>
+      </c>
+      <c r="E1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>5</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1098">
+        <v>387</v>
+      </c>
+      <c r="D1098">
+        <v>8</v>
+      </c>
+      <c r="E1098">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>5</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1099">
+        <v>387</v>
+      </c>
+      <c r="D1099">
+        <v>12</v>
+      </c>
+      <c r="E1099">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>6</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1100">
+        <v>387</v>
+      </c>
+      <c r="D1100">
+        <v>12</v>
+      </c>
+      <c r="E1100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>6</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1101">
+        <v>387</v>
+      </c>
+      <c r="D1101">
+        <v>3</v>
+      </c>
+      <c r="E1101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>7</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1102">
+        <v>387</v>
+      </c>
+      <c r="D1102">
+        <v>8</v>
+      </c>
+      <c r="E1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>7</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1103">
+        <v>387</v>
+      </c>
+      <c r="D1103">
+        <v>35</v>
+      </c>
+      <c r="E1103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>8</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1104">
+        <v>387</v>
+      </c>
+      <c r="D1104">
+        <v>22</v>
+      </c>
+      <c r="E1104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>8</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1105">
+        <v>387</v>
+      </c>
+      <c r="D1105">
+        <v>2</v>
+      </c>
+      <c r="E1105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>9</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1106">
+        <v>387</v>
+      </c>
+      <c r="D1106">
+        <v>8</v>
+      </c>
+      <c r="E1106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>9</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1107">
+        <v>387</v>
+      </c>
+      <c r="D1107">
+        <v>2</v>
+      </c>
+      <c r="E1107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>10</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1108">
+        <v>387</v>
+      </c>
+      <c r="D1108">
+        <v>10</v>
+      </c>
+      <c r="E1108">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>10</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1109">
+        <v>387</v>
+      </c>
+      <c r="D1109">
+        <v>3</v>
+      </c>
+      <c r="E1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>11</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1110">
+        <v>387</v>
+      </c>
+      <c r="D1110">
+        <v>30</v>
+      </c>
+      <c r="E1110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>11</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1111">
+        <v>387</v>
+      </c>
+      <c r="D1111">
+        <v>11</v>
+      </c>
+      <c r="E1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>12</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1112">
+        <v>387</v>
+      </c>
+      <c r="D1112">
+        <v>19</v>
+      </c>
+      <c r="E1112">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>12</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1113">
+        <v>387</v>
+      </c>
+      <c r="D1113">
+        <v>0</v>
+      </c>
+      <c r="E1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>13</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1114">
+        <v>387</v>
+      </c>
+      <c r="D1114">
+        <v>9</v>
+      </c>
+      <c r="E1114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>13</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1115">
+        <v>387</v>
+      </c>
+      <c r="D1115">
+        <v>2</v>
+      </c>
+      <c r="E1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>14</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1116">
+        <v>387</v>
+      </c>
+      <c r="D1116">
+        <v>3</v>
+      </c>
+      <c r="E1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>14</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1117">
+        <v>387</v>
+      </c>
+      <c r="D1117">
+        <v>1</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>15</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1118">
+        <v>387</v>
+      </c>
+      <c r="D1118">
+        <v>5</v>
+      </c>
+      <c r="E1118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>15</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1119">
+        <v>387</v>
+      </c>
+      <c r="D1119">
+        <v>9</v>
+      </c>
+      <c r="E1119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>16</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1120">
+        <v>387</v>
+      </c>
+      <c r="D1120">
+        <v>14</v>
+      </c>
+      <c r="E1120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>16</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1121">
+        <v>387</v>
+      </c>
+      <c r="D1121">
+        <v>10</v>
+      </c>
+      <c r="E1121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>17</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1122">
+        <v>387</v>
+      </c>
+      <c r="D1122">
+        <v>17</v>
+      </c>
+      <c r="E1122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>17</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1123">
+        <v>387</v>
+      </c>
+      <c r="D1123">
+        <v>5</v>
+      </c>
+      <c r="E1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>18</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1124">
+        <v>387</v>
+      </c>
+      <c r="D1124">
+        <v>8</v>
+      </c>
+      <c r="E1124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>18</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1125">
+        <v>387</v>
+      </c>
+      <c r="D1125">
+        <v>0</v>
+      </c>
+      <c r="E1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>19</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1126">
+        <v>387</v>
+      </c>
+      <c r="D1126">
+        <v>1</v>
+      </c>
+      <c r="E1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>19</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1127">
+        <v>387</v>
+      </c>
+      <c r="D1127">
+        <v>3</v>
+      </c>
+      <c r="E1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>20</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1128">
+        <v>387</v>
+      </c>
+      <c r="D1128">
+        <v>12</v>
+      </c>
+      <c r="E1128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>20</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1129">
+        <v>387</v>
+      </c>
+      <c r="D1129">
+        <v>10</v>
+      </c>
+      <c r="E1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>21</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1130">
+        <v>387</v>
+      </c>
+      <c r="D1130">
+        <v>13</v>
+      </c>
+      <c r="E1130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>21</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1131">
+        <v>387</v>
+      </c>
+      <c r="D1131">
+        <v>14</v>
+      </c>
+      <c r="E1131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>22</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1132">
+        <v>387</v>
+      </c>
+      <c r="D1132">
+        <v>3</v>
+      </c>
+      <c r="E1132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>22</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1133">
+        <v>387</v>
+      </c>
+      <c r="D1133">
+        <v>12</v>
+      </c>
+      <c r="E1133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>23</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1134">
+        <v>387</v>
+      </c>
+      <c r="D1134">
+        <v>24</v>
+      </c>
+      <c r="E1134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>23</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1135">
+        <v>387</v>
+      </c>
+      <c r="D1135">
+        <v>0</v>
+      </c>
+      <c r="E1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>24</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1136">
+        <v>387</v>
+      </c>
+      <c r="D1136">
+        <v>29</v>
+      </c>
+      <c r="E1136">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>24</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1137">
+        <v>387</v>
+      </c>
+      <c r="D1137">
+        <v>2</v>
+      </c>
+      <c r="E1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>25</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1138">
+        <v>387</v>
+      </c>
+      <c r="D1138">
+        <v>26</v>
+      </c>
+      <c r="E1138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>25</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1139">
+        <v>387</v>
+      </c>
+      <c r="D1139">
+        <v>2</v>
+      </c>
+      <c r="E1139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>26</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1140">
+        <v>387</v>
+      </c>
+      <c r="D1140">
+        <v>17</v>
+      </c>
+      <c r="E1140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>26</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1141">
+        <v>387</v>
+      </c>
+      <c r="D1141">
+        <v>2</v>
+      </c>
+      <c r="E1141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>27</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1142">
+        <v>387</v>
+      </c>
+      <c r="D1142">
+        <v>4</v>
+      </c>
+      <c r="E1142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>27</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1143">
+        <v>387</v>
+      </c>
+      <c r="D1143">
+        <v>3</v>
+      </c>
+      <c r="E1143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>28</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1144">
+        <v>387</v>
+      </c>
+      <c r="D1144">
+        <v>13</v>
+      </c>
+      <c r="E1144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>28</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1145">
+        <v>387</v>
+      </c>
+      <c r="D1145">
+        <v>11</v>
+      </c>
+      <c r="E1145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>29</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1146">
+        <v>387</v>
+      </c>
+      <c r="D1146">
+        <v>4</v>
+      </c>
+      <c r="E1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>29</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1147">
+        <v>387</v>
+      </c>
+      <c r="D1147">
+        <v>1</v>
+      </c>
+      <c r="E1147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>30</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1148">
+        <v>387</v>
+      </c>
+      <c r="D1148">
+        <v>37</v>
+      </c>
+      <c r="E1148">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>30</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1149">
+        <v>387</v>
+      </c>
+      <c r="D1149">
+        <v>13</v>
+      </c>
+      <c r="E1149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>31</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1150">
+        <v>387</v>
+      </c>
+      <c r="D1150">
+        <v>10</v>
+      </c>
+      <c r="E1150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>31</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1151">
+        <v>387</v>
+      </c>
+      <c r="D1151">
+        <v>12</v>
+      </c>
+      <c r="E1151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>32</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1152">
+        <v>387</v>
+      </c>
+      <c r="D1152">
+        <v>2</v>
+      </c>
+      <c r="E1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>32</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1153">
+        <v>387</v>
+      </c>
+      <c r="D1153">
+        <v>23</v>
+      </c>
+      <c r="E1153">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>33</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1154">
+        <v>387</v>
+      </c>
+      <c r="D1154">
+        <v>28</v>
+      </c>
+      <c r="E1154">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>33</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1155">
+        <v>387</v>
+      </c>
+      <c r="D1155">
+        <v>15</v>
+      </c>
+      <c r="E1155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>34</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1156">
+        <v>387</v>
+      </c>
+      <c r="D1156">
+        <v>9</v>
+      </c>
+      <c r="E1156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>34</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1157">
+        <v>387</v>
+      </c>
+      <c r="D1157">
+        <v>6</v>
+      </c>
+      <c r="E1157">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
